--- a/excel-to-json/catalog.xlsx
+++ b/excel-to-json/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUF Catlog APP\cartPWA\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABD998D-E2E9-4555-8FD2-3B3C4FF03C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0059E96-00F5-4620-806C-CD93F1627994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6428,7 +6428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1103"/>
+  <dimension ref="A1:E1104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <v>21160</v>
+        <v>22121</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <v>18574</v>
+        <v>19418</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
-        <v>15932</v>
+        <v>16657</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6520,7 +6520,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="1">
-        <v>13389</v>
+        <v>13998</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6537,7 +6537,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="1">
-        <v>18058</v>
+        <v>18878</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6554,7 +6554,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="1">
-        <v>16317</v>
+        <v>17059</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6571,7 +6571,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="1">
-        <v>14834</v>
+        <v>15508</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6588,7 +6588,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="1">
-        <v>12333</v>
+        <v>12894</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
-        <v>17182</v>
+        <v>17963</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <v>15569</v>
+        <v>16277</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <v>9785</v>
+        <v>10229</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <v>27156</v>
+        <v>28390</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <v>23643</v>
+        <v>24718</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <v>31255</v>
+        <v>32676</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <v>20804</v>
+        <v>21750</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <v>27992</v>
+        <v>29264</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <v>18085</v>
+        <v>18907</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>24712</v>
+        <v>25835</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6755,7 +6755,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="1">
-        <v>22216</v>
+        <v>23225</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6772,7 +6772,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="1">
-        <v>19507</v>
+        <v>20394</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6789,7 +6789,7 @@
         <v>52</v>
       </c>
       <c r="E22" s="1">
-        <v>17122</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6806,7 +6806,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="1">
-        <v>22216</v>
+        <v>23225</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6823,7 +6823,7 @@
         <v>56</v>
       </c>
       <c r="E24" s="1">
-        <v>30509</v>
+        <v>31895</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
-        <v>28731</v>
+        <v>30037</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <v>37732</v>
+        <v>39447</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>25550</v>
+        <v>26711</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
-        <v>21160</v>
+        <v>22121</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6896,7 +6896,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
-        <v>21875</v>
+        <v>22869</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6909,7 +6909,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <v>22243</v>
+        <v>23254</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6922,7 +6922,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>29058</v>
+        <v>30378</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
-        <v>18574</v>
+        <v>19418</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6950,7 +6950,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
-        <v>18939</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6963,7 +6963,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
-        <v>25967</v>
+        <v>27147</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
-        <v>16317</v>
+        <v>17059</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6991,7 +6991,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>16936</v>
+        <v>17705</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7004,7 +7004,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>26886</v>
+        <v>28108</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7017,7 +7017,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>18687</v>
+        <v>19536</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7030,7 +7030,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
-        <v>11949</v>
+        <v>12492</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
-        <v>23643</v>
+        <v>24718</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>20800</v>
+        <v>21745</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>18088</v>
+        <v>18911</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
-        <v>16317</v>
+        <v>17059</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <v>19421</v>
+        <v>20303</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7118,7 +7118,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
-        <v>26902</v>
+        <v>28124</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1">
-        <v>16633</v>
+        <v>17389</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7146,7 +7146,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1">
-        <v>23263</v>
+        <v>24320</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1">
-        <v>14340</v>
+        <v>14991</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7174,7 +7174,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
-        <v>20516</v>
+        <v>21449</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
-        <v>11776</v>
+        <v>12311</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7202,7 +7202,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
-        <v>17195</v>
+        <v>17977</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1">
-        <v>9834</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7230,7 +7230,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1">
-        <v>14840</v>
+        <v>15515</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1">
-        <v>7922</v>
+        <v>8282</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7258,7 +7258,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1">
-        <v>12330</v>
+        <v>12890</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1">
-        <v>6774</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7286,7 +7286,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1">
-        <v>11004</v>
+        <v>11505</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1">
-        <v>4993</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7314,7 +7314,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1">
-        <v>8989</v>
+        <v>9398</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7331,7 +7331,7 @@
         <v>121</v>
       </c>
       <c r="E60" s="1">
-        <v>12330</v>
+        <v>12890</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7348,7 +7348,7 @@
         <v>121</v>
       </c>
       <c r="E61" s="1">
-        <v>10338</v>
+        <v>10808</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7365,7 +7365,7 @@
         <v>121</v>
       </c>
       <c r="E62" s="1">
-        <v>7875</v>
+        <v>8233</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7382,7 +7382,7 @@
         <v>128</v>
       </c>
       <c r="E63" s="1">
-        <v>7149</v>
+        <v>7474</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7399,7 +7399,7 @@
         <v>131</v>
       </c>
       <c r="E64" s="1">
-        <v>3138</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7412,7 +7412,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1">
-        <v>2360</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7429,7 +7429,7 @@
         <v>137</v>
       </c>
       <c r="E66" s="1">
-        <v>1670</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1">
-        <v>3219</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7457,7 +7457,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1">
-        <v>6106</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1">
-        <v>2664</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7485,7 +7485,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1">
-        <v>5297</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7500,7 +7500,7 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1">
-        <v>11776</v>
+        <v>12311</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7513,7 +7513,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1">
-        <v>17195</v>
+        <v>17977</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1">
-        <v>10801</v>
+        <v>11292</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1">
-        <v>9834</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1">
-        <v>7475</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1">
-        <v>6774</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1">
-        <v>11776</v>
+        <v>12311</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7612,7 +7612,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1">
-        <v>17194</v>
+        <v>17976</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1">
-        <v>9834</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7640,7 +7640,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1">
-        <v>14834</v>
+        <v>15508</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1">
-        <v>6774</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7668,7 +7668,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1">
-        <v>11004</v>
+        <v>11505</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1">
-        <v>4993</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7696,7 +7696,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1">
-        <v>8976</v>
+        <v>9384</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1">
-        <v>3083</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1">
-        <v>6072</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1">
-        <v>2558</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1">
-        <v>3083</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1">
-        <v>2558</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1">
-        <v>2965</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7803,7 +7803,7 @@
         <v>131</v>
       </c>
       <c r="E92" s="1">
-        <v>3439</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7816,7 +7816,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1">
-        <v>6126</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7829,7 +7829,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1">
-        <v>5689</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1">
-        <v>2246</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7857,7 +7857,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1">
-        <v>4693</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1">
-        <v>2965</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7885,7 +7885,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1">
-        <v>12606</v>
+        <v>13179</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1">
-        <v>5188</v>
+        <v>5423</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1">
-        <v>2246</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7928,7 +7928,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1">
-        <v>4151</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1">
-        <v>2816</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1">
-        <v>2965</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7975,7 +7975,7 @@
         <v>121</v>
       </c>
       <c r="E104" s="1">
-        <v>3439</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7992,7 +7992,7 @@
         <v>121</v>
       </c>
       <c r="E105" s="1">
-        <v>6126</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8005,7 +8005,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1">
-        <v>5188</v>
+        <v>5423</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8020,7 +8020,7 @@
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1">
-        <v>2246</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8033,7 +8033,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1">
-        <v>4151</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8046,7 +8046,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1">
-        <v>2965</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8059,7 +8059,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1">
-        <v>2252</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8072,7 +8072,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1">
-        <v>4151</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8085,7 +8085,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1">
-        <v>3110</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1">
-        <v>11776</v>
+        <v>12311</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8117,7 +8117,7 @@
         <v>228</v>
       </c>
       <c r="E114" s="1">
-        <v>12804</v>
+        <v>13386</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8130,7 +8130,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1">
-        <v>19421</v>
+        <v>20303</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8143,7 +8143,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1">
-        <v>18059</v>
+        <v>18880</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1">
-        <v>10801</v>
+        <v>11292</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8171,7 +8171,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1">
-        <v>16317</v>
+        <v>17059</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1">
-        <v>9834</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8199,7 +8199,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1">
-        <v>14834</v>
+        <v>15508</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1">
-        <v>7922</v>
+        <v>8282</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8227,7 +8227,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1">
-        <v>12330</v>
+        <v>12890</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1">
-        <v>6106</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8255,7 +8255,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1">
-        <v>11004</v>
+        <v>11505</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1">
-        <v>4993</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8283,7 +8283,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1">
-        <v>8976</v>
+        <v>9384</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8300,7 +8300,7 @@
         <v>248</v>
       </c>
       <c r="E127" s="1">
-        <v>4425</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8313,7 +8313,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1">
-        <v>7951</v>
+        <v>8312</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8330,7 +8330,7 @@
         <v>253</v>
       </c>
       <c r="E129" s="1">
-        <v>9763</v>
+        <v>10206</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8347,7 +8347,7 @@
         <v>45</v>
       </c>
       <c r="E130" s="1">
-        <v>8463</v>
+        <v>8848</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8364,7 +8364,7 @@
         <v>52</v>
       </c>
       <c r="E131" s="1">
-        <v>6100</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8381,7 +8381,7 @@
         <v>52</v>
       </c>
       <c r="E132" s="1">
-        <v>4576</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8398,7 +8398,7 @@
         <v>52</v>
       </c>
       <c r="E133" s="1">
-        <v>3205</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8415,7 +8415,7 @@
         <v>131</v>
       </c>
       <c r="E134" s="1">
-        <v>1830</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8432,7 +8432,7 @@
         <v>131</v>
       </c>
       <c r="E135" s="1">
-        <v>1526</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8449,7 +8449,7 @@
         <v>228</v>
       </c>
       <c r="E136" s="1">
-        <v>915</v>
+        <v>957</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8466,7 +8466,7 @@
         <v>137</v>
       </c>
       <c r="E137" s="1">
-        <v>801</v>
+        <v>837</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1">
-        <v>11343</v>
+        <v>11859</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1">
-        <v>9329</v>
+        <v>9753</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1">
-        <v>7564</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1">
-        <v>5910</v>
+        <v>6179</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8539,7 +8539,7 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1">
-        <v>14533</v>
+        <v>15194</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8552,7 +8552,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1">
-        <v>8756</v>
+        <v>9154</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8569,7 +8569,7 @@
         <v>280</v>
       </c>
       <c r="E144" s="1">
-        <v>11776</v>
+        <v>12311</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1">
-        <v>6996</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8601,7 +8601,7 @@
         <v>284</v>
       </c>
       <c r="E146" s="1">
-        <v>8505</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1">
-        <v>5672</v>
+        <v>5929</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8633,7 +8633,7 @@
         <v>289</v>
       </c>
       <c r="E148" s="1">
-        <v>6996</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1">
-        <v>3219</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1">
-        <v>3018</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8680,7 +8680,7 @@
         <v>296</v>
       </c>
       <c r="E151" s="1">
-        <v>3896</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8693,7 +8693,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1">
-        <v>4934</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1">
-        <v>2664</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8736,7 +8736,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1">
-        <v>4151</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1">
-        <v>2328</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8764,7 +8764,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1">
-        <v>3962</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8779,7 +8779,7 @@
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1">
-        <v>1994</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8792,7 +8792,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1">
-        <v>3546</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1">
-        <v>1615</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1">
-        <v>921</v>
+        <v>963</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1">
-        <v>1627</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8884,7 +8884,7 @@
         <v>326</v>
       </c>
       <c r="E165" s="1">
-        <v>3023</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8897,7 +8897,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1">
-        <v>4934</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8914,7 +8914,7 @@
         <v>335</v>
       </c>
       <c r="E167" s="1">
-        <v>2328</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8927,7 +8927,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1">
-        <v>3962</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8940,7 +8940,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1">
-        <v>3165</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8953,7 +8953,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1">
-        <v>2782</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8966,7 +8966,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1">
-        <v>2598</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8983,7 +8983,7 @@
         <v>344</v>
       </c>
       <c r="E172" s="1">
-        <v>2456</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9000,7 +9000,7 @@
         <v>346</v>
       </c>
       <c r="E173" s="1">
-        <v>2077</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9015,7 +9015,7 @@
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1">
-        <v>2000</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1">
-        <v>3018</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1">
-        <v>4024</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9058,7 +9058,7 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1">
-        <v>5962</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9071,7 +9071,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1">
-        <v>4931</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1">
-        <v>2664</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9099,7 +9099,7 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1">
-        <v>4491</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9127,7 +9127,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1">
-        <v>4151</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1">
-        <v>2328</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1">
-        <v>3949</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9172,7 +9172,7 @@
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1">
-        <v>1994</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9185,7 +9185,7 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1">
-        <v>3546</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1">
-        <v>1817</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9213,7 +9213,7 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1">
-        <v>3412</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1">
-        <v>1615</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9241,7 +9241,7 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1">
-        <v>3115</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1">
-        <v>921</v>
+        <v>963</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9269,7 +9269,7 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1">
-        <v>1486</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9284,7 +9284,7 @@
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9297,7 +9297,7 @@
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1">
-        <v>1245</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9314,7 +9314,7 @@
         <v>326</v>
       </c>
       <c r="E195" s="1">
-        <v>4370</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9331,7 +9331,7 @@
         <v>344</v>
       </c>
       <c r="E196" s="1">
-        <v>3666</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9348,7 +9348,7 @@
         <v>45</v>
       </c>
       <c r="E197" s="1">
-        <v>924</v>
+        <v>966</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9365,7 +9365,7 @@
         <v>394</v>
       </c>
       <c r="E198" s="1">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9382,7 +9382,7 @@
         <v>397</v>
       </c>
       <c r="E199" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9399,7 +9399,7 @@
         <v>397</v>
       </c>
       <c r="E200" s="1">
-        <v>2965</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9416,7 +9416,7 @@
         <v>397</v>
       </c>
       <c r="E201" s="1">
-        <v>4465</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9433,7 +9433,7 @@
         <v>326</v>
       </c>
       <c r="E202" s="1">
-        <v>1994</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9450,7 +9450,7 @@
         <v>326</v>
       </c>
       <c r="E203" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9467,7 +9467,7 @@
         <v>326</v>
       </c>
       <c r="E204" s="1">
-        <v>3746</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9482,7 +9482,7 @@
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1">
-        <v>3412</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9497,7 +9497,7 @@
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1">
-        <v>1447</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9510,7 +9510,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1">
-        <v>5249</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1">
-        <v>1155</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9553,7 +9553,7 @@
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1">
-        <v>4151</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1">
-        <v>2328</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1">
-        <v>968</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9598,7 +9598,7 @@
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1">
-        <v>3949</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1">
-        <v>1994</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1">
-        <v>851</v>
+        <v>890</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9641,7 +9641,7 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1">
-        <v>3546</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1">
-        <v>921</v>
+        <v>963</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9669,7 +9669,7 @@
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9682,7 +9682,7 @@
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1">
-        <v>1615</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1">
-        <v>2328</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1">
-        <v>1994</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9727,7 +9727,7 @@
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1">
-        <v>1615</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9755,7 +9755,7 @@
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1">
-        <v>4151</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9770,7 +9770,7 @@
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1">
-        <v>2328</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9783,7 +9783,7 @@
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1">
-        <v>3962</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9798,7 +9798,7 @@
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1">
-        <v>1994</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9811,7 +9811,7 @@
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1">
-        <v>3546</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9824,7 +9824,7 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1">
-        <v>1329</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1">
-        <v>921</v>
+        <v>963</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9854,7 +9854,7 @@
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1">
-        <v>642</v>
+        <v>672</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9867,7 +9867,7 @@
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1">
-        <v>2160</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9884,7 +9884,7 @@
         <v>121</v>
       </c>
       <c r="E233" s="1">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9897,7 +9897,7 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1">
-        <v>1890</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1">
-        <v>2193</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9925,7 +9925,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1">
-        <v>866</v>
+        <v>905</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9938,7 +9938,7 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1">
-        <v>3671</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9955,7 +9955,7 @@
         <v>397</v>
       </c>
       <c r="E238" s="1">
-        <v>2935</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9972,7 +9972,7 @@
         <v>215</v>
       </c>
       <c r="E239" s="1">
-        <v>4643</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9989,7 +9989,7 @@
         <v>318</v>
       </c>
       <c r="E240" s="1">
-        <v>3138</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10006,7 +10006,7 @@
         <v>475</v>
       </c>
       <c r="E241" s="1">
-        <v>2640</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10023,7 +10023,7 @@
         <v>478</v>
       </c>
       <c r="E242" s="1">
-        <v>2273</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10040,7 +10040,7 @@
         <v>481</v>
       </c>
       <c r="E243" s="1">
-        <v>1955</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10057,7 +10057,7 @@
         <v>432</v>
       </c>
       <c r="E244" s="1">
-        <v>1463</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10074,7 +10074,7 @@
         <v>203</v>
       </c>
       <c r="E245" s="1">
-        <v>4349</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10091,7 +10091,7 @@
         <v>301</v>
       </c>
       <c r="E246" s="1">
-        <v>3908</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10108,7 +10108,7 @@
         <v>490</v>
       </c>
       <c r="E247" s="1">
-        <v>4723</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10125,7 +10125,7 @@
         <v>262</v>
       </c>
       <c r="E248" s="1">
-        <v>3138</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10142,7 +10142,7 @@
         <v>385</v>
       </c>
       <c r="E249" s="1">
-        <v>2640</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10155,7 +10155,7 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1">
-        <v>683</v>
+        <v>714</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10172,7 +10172,7 @@
         <v>385</v>
       </c>
       <c r="E251" s="1">
-        <v>4278</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10189,7 +10189,7 @@
         <v>490</v>
       </c>
       <c r="E252" s="1">
-        <v>4491</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1">
-        <v>1155</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10221,7 +10221,7 @@
         <v>490</v>
       </c>
       <c r="E254" s="1">
-        <v>6106</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10238,7 +10238,7 @@
         <v>506</v>
       </c>
       <c r="E255" s="1">
-        <v>4148</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10253,7 +10253,7 @@
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1">
-        <v>968</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10270,7 +10270,7 @@
         <v>506</v>
       </c>
       <c r="E257" s="1">
-        <v>5539</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10287,7 +10287,7 @@
         <v>366</v>
       </c>
       <c r="E258" s="1">
-        <v>3138</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1">
-        <v>851</v>
+        <v>890</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10319,7 +10319,7 @@
         <v>366</v>
       </c>
       <c r="E260" s="1">
-        <v>4370</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10336,7 +10336,7 @@
         <v>289</v>
       </c>
       <c r="E261" s="1">
-        <v>2640</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10353,7 +10353,7 @@
         <v>289</v>
       </c>
       <c r="E262" s="1">
-        <v>4278</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10370,7 +10370,7 @@
         <v>426</v>
       </c>
       <c r="E263" s="1">
-        <v>2000</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10387,7 +10387,7 @@
         <v>130</v>
       </c>
       <c r="E264" s="1">
-        <v>5689</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10404,7 +10404,7 @@
         <v>174</v>
       </c>
       <c r="E265" s="1">
-        <v>4425</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1">
-        <v>968</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10436,7 +10436,7 @@
         <v>203</v>
       </c>
       <c r="E267" s="1">
-        <v>4349</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10453,7 +10453,7 @@
         <v>301</v>
       </c>
       <c r="E268" s="1">
-        <v>3908</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10470,7 +10470,7 @@
         <v>533</v>
       </c>
       <c r="E269" s="1">
-        <v>8412</v>
+        <v>8794</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10487,7 +10487,7 @@
         <v>533</v>
       </c>
       <c r="E270" s="1">
-        <v>4491</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10504,7 +10504,7 @@
         <v>533</v>
       </c>
       <c r="E271" s="1">
-        <v>6488</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10521,7 +10521,7 @@
         <v>540</v>
       </c>
       <c r="E272" s="1">
-        <v>4148</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1">
-        <v>851</v>
+        <v>890</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10553,7 +10553,7 @@
         <v>540</v>
       </c>
       <c r="E274" s="1">
-        <v>5539</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10570,7 +10570,7 @@
         <v>343</v>
       </c>
       <c r="E275" s="1">
-        <v>3138</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10587,7 +10587,7 @@
         <v>343</v>
       </c>
       <c r="E276" s="1">
-        <v>4397</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10600,7 +10600,7 @@
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1">
-        <v>2193</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10617,7 +10617,7 @@
         <v>343</v>
       </c>
       <c r="E278" s="1">
-        <v>3718</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1">
-        <v>739</v>
+        <v>773</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10649,7 +10649,7 @@
         <v>343</v>
       </c>
       <c r="E280" s="1">
-        <v>5083</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10666,7 +10666,7 @@
         <v>533</v>
       </c>
       <c r="E281" s="1">
-        <v>8102</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10683,7 +10683,7 @@
         <v>561</v>
       </c>
       <c r="E282" s="1">
-        <v>10124</v>
+        <v>10585</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10700,7 +10700,7 @@
         <v>561</v>
       </c>
       <c r="E283" s="1">
-        <v>10124</v>
+        <v>10585</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10717,7 +10717,7 @@
         <v>533</v>
       </c>
       <c r="E284" s="1">
-        <v>8102</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10734,7 +10734,7 @@
         <v>540</v>
       </c>
       <c r="E285" s="1">
-        <v>7564</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10751,7 +10751,7 @@
         <v>570</v>
       </c>
       <c r="E286" s="1">
-        <v>7185</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10764,7 +10764,7 @@
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1">
-        <v>4693</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10777,7 +10777,7 @@
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1">
-        <v>1955</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10794,7 +10794,7 @@
         <v>170</v>
       </c>
       <c r="E289" s="1">
-        <v>4491</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10811,7 +10811,7 @@
         <v>579</v>
       </c>
       <c r="E290" s="1">
-        <v>4148</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10828,7 +10828,7 @@
         <v>579</v>
       </c>
       <c r="E291" s="1">
-        <v>5380</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10845,7 +10845,7 @@
         <v>215</v>
       </c>
       <c r="E292" s="1">
-        <v>3138</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10862,7 +10862,7 @@
         <v>191</v>
       </c>
       <c r="E293" s="1">
-        <v>4148</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10879,7 +10879,7 @@
         <v>191</v>
       </c>
       <c r="E294" s="1">
-        <v>5380</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10896,7 +10896,7 @@
         <v>174</v>
       </c>
       <c r="E295" s="1">
-        <v>3138</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10913,7 +10913,7 @@
         <v>174</v>
       </c>
       <c r="E296" s="1">
-        <v>3764</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10930,7 +10930,7 @@
         <v>170</v>
       </c>
       <c r="E297" s="1">
-        <v>4723</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1">
-        <v>1155</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10962,7 +10962,7 @@
         <v>170</v>
       </c>
       <c r="E299" s="1">
-        <v>6481</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10979,7 +10979,7 @@
         <v>600</v>
       </c>
       <c r="E300" s="1">
-        <v>4148</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10996,7 +10996,7 @@
         <v>600</v>
       </c>
       <c r="E301" s="1">
-        <v>5380</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11013,7 +11013,7 @@
         <v>555</v>
       </c>
       <c r="E302" s="1">
-        <v>2981</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11026,7 +11026,7 @@
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1">
-        <v>10065</v>
+        <v>10523</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11039,7 +11039,7 @@
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1">
-        <v>10065</v>
+        <v>10523</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11054,7 +11054,7 @@
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1">
-        <v>1447</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11067,7 +11067,7 @@
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1">
-        <v>8151</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11082,7 +11082,7 @@
       </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1">
-        <v>1447</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11095,7 +11095,7 @@
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1">
-        <v>6522</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11110,7 +11110,7 @@
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1">
-        <v>1165</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11123,7 +11123,7 @@
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1">
-        <v>5792</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1">
-        <v>920</v>
+        <v>961</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11151,7 +11151,7 @@
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1">
-        <v>4462</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1">
-        <v>730</v>
+        <v>764</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11179,7 +11179,7 @@
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1">
-        <v>5962</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11196,7 +11196,7 @@
         <v>385</v>
       </c>
       <c r="E315" s="1">
-        <v>1514</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11213,7 +11213,7 @@
         <v>326</v>
       </c>
       <c r="E316" s="1">
-        <v>1210</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11230,7 +11230,7 @@
         <v>253</v>
       </c>
       <c r="E317" s="1">
-        <v>908</v>
+        <v>949</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11243,7 +11243,7 @@
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1">
-        <v>10065</v>
+        <v>10523</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11256,7 +11256,7 @@
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1">
-        <v>11069</v>
+        <v>11572</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11269,7 +11269,7 @@
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1">
-        <v>8151</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11282,7 +11282,7 @@
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1">
-        <v>8963</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11295,7 +11295,7 @@
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1">
-        <v>6522</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11308,7 +11308,7 @@
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1">
-        <v>7174</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11321,7 +11321,7 @@
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1">
-        <v>7059</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11334,7 +11334,7 @@
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1">
-        <v>5628</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11347,7 +11347,7 @@
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1">
-        <v>21988</v>
+        <v>22987</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11360,7 +11360,7 @@
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1">
-        <v>3336</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11373,7 +11373,7 @@
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1">
-        <v>23705</v>
+        <v>24783</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11386,7 +11386,7 @@
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1">
-        <v>16317</v>
+        <v>17059</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11399,7 +11399,7 @@
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1">
-        <v>2699</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11412,7 +11412,7 @@
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1">
-        <v>17519</v>
+        <v>18315</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11425,7 +11425,7 @@
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1">
-        <v>8230</v>
+        <v>8604</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11438,7 +11438,7 @@
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1">
-        <v>2030</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11451,7 +11451,7 @@
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1">
-        <v>9210</v>
+        <v>9629</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11468,7 +11468,7 @@
         <v>279</v>
       </c>
       <c r="E335" s="1">
-        <v>17650</v>
+        <v>18452</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11481,7 +11481,7 @@
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1">
-        <v>2558</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11494,7 +11494,7 @@
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1">
-        <v>528</v>
+        <v>552</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11507,7 +11507,7 @@
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1">
-        <v>3762</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11520,7 +11520,7 @@
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1">
-        <v>1994</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11533,7 +11533,7 @@
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11546,7 +11546,7 @@
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1">
-        <v>2937</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11559,7 +11559,7 @@
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1">
-        <v>21988</v>
+        <v>22987</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11572,7 +11572,7 @@
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1">
-        <v>23630</v>
+        <v>24704</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11589,7 +11589,7 @@
         <v>343</v>
       </c>
       <c r="E344" s="1">
-        <v>17051</v>
+        <v>17826</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11606,7 +11606,7 @@
         <v>170</v>
       </c>
       <c r="E345" s="1">
-        <v>29132</v>
+        <v>30457</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11619,7 +11619,7 @@
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1">
-        <v>34591</v>
+        <v>36163</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11632,7 +11632,7 @@
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1">
-        <v>6311</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11649,7 +11649,7 @@
         <v>343</v>
       </c>
       <c r="E348" s="1">
-        <v>21160</v>
+        <v>22121</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11666,7 +11666,7 @@
         <v>262</v>
       </c>
       <c r="E349" s="1">
-        <v>14507</v>
+        <v>15166</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11679,7 +11679,7 @@
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1">
-        <v>5283</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11696,7 +11696,7 @@
         <v>262</v>
       </c>
       <c r="E351" s="1">
-        <v>18227</v>
+        <v>19056</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11713,7 +11713,7 @@
         <v>289</v>
       </c>
       <c r="E352" s="1">
-        <v>12198</v>
+        <v>12752</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11726,7 +11726,7 @@
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1">
-        <v>3412</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11743,7 +11743,7 @@
         <v>289</v>
       </c>
       <c r="E354" s="1">
-        <v>15932</v>
+        <v>16657</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11760,7 +11760,7 @@
         <v>426</v>
       </c>
       <c r="E355" s="1">
-        <v>10122</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11773,7 +11773,7 @@
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1">
-        <v>3115</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11790,7 +11790,7 @@
         <v>426</v>
       </c>
       <c r="E357" s="1">
-        <v>13165</v>
+        <v>13763</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11807,7 +11807,7 @@
         <v>264</v>
       </c>
       <c r="E358" s="1">
-        <v>7289</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11820,7 +11820,7 @@
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1">
-        <v>2328</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11837,7 +11837,7 @@
         <v>264</v>
       </c>
       <c r="E360" s="1">
-        <v>10012</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11854,7 +11854,7 @@
         <v>512</v>
       </c>
       <c r="E361" s="1">
-        <v>5106</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11867,7 +11867,7 @@
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1">
-        <v>1955</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11880,7 +11880,7 @@
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1">
-        <v>7590</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11897,7 +11897,7 @@
         <v>326</v>
       </c>
       <c r="E364" s="1">
-        <v>4298</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11912,7 +11912,7 @@
       </c>
       <c r="D365" s="1"/>
       <c r="E365" s="1">
-        <v>1025</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11925,7 +11925,7 @@
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1">
-        <v>5864</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11942,7 +11942,7 @@
         <v>326</v>
       </c>
       <c r="E367" s="1">
-        <v>3429</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1">
-        <v>815</v>
+        <v>852</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11970,7 +11970,7 @@
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1">
-        <v>4728</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11983,7 +11983,7 @@
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1">
-        <v>17903</v>
+        <v>18716</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11996,7 +11996,7 @@
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1">
-        <v>22216</v>
+        <v>23225</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12009,7 +12009,7 @@
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1">
-        <v>15234</v>
+        <v>15926</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12022,7 +12022,7 @@
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1">
-        <v>19137</v>
+        <v>20007</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12035,7 +12035,7 @@
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1">
-        <v>12821</v>
+        <v>13403</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12048,7 +12048,7 @@
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1">
-        <v>16727</v>
+        <v>17487</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12061,7 +12061,7 @@
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1">
-        <v>10622</v>
+        <v>11104</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12074,7 +12074,7 @@
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1">
-        <v>13820</v>
+        <v>14449</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12087,7 +12087,7 @@
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1">
-        <v>7656</v>
+        <v>8004</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12100,7 +12100,7 @@
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1">
-        <v>10528</v>
+        <v>11007</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12113,7 +12113,7 @@
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1">
-        <v>5361</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12126,7 +12126,7 @@
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1">
-        <v>7975</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12139,7 +12139,7 @@
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1">
-        <v>4506</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12152,7 +12152,7 @@
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1">
-        <v>6142</v>
+        <v>6422</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12165,7 +12165,7 @@
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1">
-        <v>30576</v>
+        <v>31965</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12182,7 +12182,7 @@
         <v>439</v>
       </c>
       <c r="E385" s="1">
-        <v>15234</v>
+        <v>15926</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12199,7 +12199,7 @@
         <v>439</v>
       </c>
       <c r="E386" s="1">
-        <v>18966</v>
+        <v>19828</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12216,7 +12216,7 @@
         <v>512</v>
       </c>
       <c r="E387" s="1">
-        <v>12821</v>
+        <v>13403</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12233,7 +12233,7 @@
         <v>512</v>
       </c>
       <c r="E388" s="1">
-        <v>16555</v>
+        <v>17308</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12250,7 +12250,7 @@
         <v>758</v>
       </c>
       <c r="E389" s="1">
-        <v>10614</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12267,7 +12267,7 @@
         <v>758</v>
       </c>
       <c r="E390" s="1">
-        <v>14307</v>
+        <v>14957</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12284,7 +12284,7 @@
         <v>521</v>
       </c>
       <c r="E391" s="1">
-        <v>7632</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12301,7 +12301,7 @@
         <v>521</v>
       </c>
       <c r="E392" s="1">
-        <v>10721</v>
+        <v>11208</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12318,7 +12318,7 @@
         <v>321</v>
       </c>
       <c r="E393" s="1">
-        <v>5346</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12335,7 +12335,7 @@
         <v>321</v>
       </c>
       <c r="E394" s="1">
-        <v>8142</v>
+        <v>8512</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12352,7 +12352,7 @@
         <v>768</v>
       </c>
       <c r="E395" s="1">
-        <v>3138</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12369,7 +12369,7 @@
         <v>768</v>
       </c>
       <c r="E396" s="1">
-        <v>5106</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12386,7 +12386,7 @@
         <v>346</v>
       </c>
       <c r="E397" s="1">
-        <v>2640</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12403,7 +12403,7 @@
         <v>346</v>
       </c>
       <c r="E398" s="1">
-        <v>4517</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12416,7 +12416,7 @@
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1">
-        <v>2160</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12433,7 +12433,7 @@
         <v>343</v>
       </c>
       <c r="E400" s="1">
-        <v>2836</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12446,7 +12446,7 @@
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1">
-        <v>960</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12459,7 +12459,7 @@
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1">
-        <v>17903</v>
+        <v>18716</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12472,7 +12472,7 @@
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1">
-        <v>22216</v>
+        <v>23225</v>
       </c>
     </row>
     <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12485,7 +12485,7 @@
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1">
-        <v>15234</v>
+        <v>15926</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12498,7 +12498,7 @@
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1">
-        <v>19137</v>
+        <v>20007</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12515,7 +12515,7 @@
         <v>343</v>
       </c>
       <c r="E406" s="1">
-        <v>12821</v>
+        <v>13403</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12528,7 +12528,7 @@
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1">
-        <v>16727</v>
+        <v>17487</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12541,7 +12541,7 @@
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1">
-        <v>10622</v>
+        <v>11104</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12554,7 +12554,7 @@
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1">
-        <v>13820</v>
+        <v>14449</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12567,7 +12567,7 @@
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1">
-        <v>7656</v>
+        <v>8004</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12580,7 +12580,7 @@
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1">
-        <v>10528</v>
+        <v>11007</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12593,7 +12593,7 @@
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1">
-        <v>5361</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12606,7 +12606,7 @@
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1">
-        <v>7975</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12619,7 +12619,7 @@
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1">
-        <v>4506</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12632,7 +12632,7 @@
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1">
-        <v>6142</v>
+        <v>6422</v>
       </c>
     </row>
     <row r="416" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12649,7 +12649,7 @@
         <v>343</v>
       </c>
       <c r="E416" s="1">
-        <v>18566</v>
+        <v>19410</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12666,7 +12666,7 @@
         <v>262</v>
       </c>
       <c r="E417" s="1">
-        <v>19500</v>
+        <v>20386</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12683,7 +12683,7 @@
         <v>262</v>
       </c>
       <c r="E418" s="1">
-        <v>16434</v>
+        <v>17181</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12700,7 +12700,7 @@
         <v>426</v>
       </c>
       <c r="E419" s="1">
-        <v>17254</v>
+        <v>18038</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12717,7 +12717,7 @@
         <v>426</v>
       </c>
       <c r="E420" s="1">
-        <v>11765</v>
+        <v>12299</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12734,7 +12734,7 @@
         <v>264</v>
       </c>
       <c r="E421" s="1">
-        <v>12379</v>
+        <v>12942</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12749,7 +12749,7 @@
       </c>
       <c r="D422" s="1"/>
       <c r="E422" s="1">
-        <v>22983</v>
+        <v>24028</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12762,7 +12762,7 @@
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1">
-        <v>29994</v>
+        <v>31357</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="D424" s="1"/>
       <c r="E424" s="1">
-        <v>17742</v>
+        <v>18548</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12790,7 +12790,7 @@
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1">
-        <v>23859</v>
+        <v>24944</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12805,7 +12805,7 @@
       </c>
       <c r="D426" s="1"/>
       <c r="E426" s="1">
-        <v>12878</v>
+        <v>13463</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12818,7 +12818,7 @@
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1">
-        <v>18088</v>
+        <v>18911</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12833,7 +12833,7 @@
       </c>
       <c r="D428" s="1"/>
       <c r="E428" s="1">
-        <v>10792</v>
+        <v>11283</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12846,7 +12846,7 @@
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1">
-        <v>15492</v>
+        <v>16197</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12863,7 +12863,7 @@
         <v>191</v>
       </c>
       <c r="E430" s="1">
-        <v>17051</v>
+        <v>17826</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12876,7 +12876,7 @@
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1">
-        <v>8837</v>
+        <v>9239</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12893,7 +12893,7 @@
         <v>191</v>
       </c>
       <c r="E432" s="1">
-        <v>21160</v>
+        <v>22121</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12910,7 +12910,7 @@
         <v>203</v>
       </c>
       <c r="E433" s="1">
-        <v>14507</v>
+        <v>15166</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12923,7 +12923,7 @@
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1">
-        <v>7755</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12940,7 +12940,7 @@
         <v>203</v>
       </c>
       <c r="E435" s="1">
-        <v>18227</v>
+        <v>19056</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12957,7 +12957,7 @@
         <v>343</v>
       </c>
       <c r="E436" s="1">
-        <v>12198</v>
+        <v>12752</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12970,7 +12970,7 @@
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1">
-        <v>6311</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12987,7 +12987,7 @@
         <v>343</v>
       </c>
       <c r="E438" s="1">
-        <v>15932</v>
+        <v>16657</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13004,7 +13004,7 @@
         <v>262</v>
       </c>
       <c r="E439" s="1">
-        <v>10122</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13017,7 +13017,7 @@
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1">
-        <v>6509</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13034,7 +13034,7 @@
         <v>262</v>
       </c>
       <c r="E441" s="1">
-        <v>13165</v>
+        <v>13763</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13051,7 +13051,7 @@
         <v>289</v>
       </c>
       <c r="E442" s="1">
-        <v>7289</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13064,7 +13064,7 @@
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1">
-        <v>3412</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13081,7 +13081,7 @@
         <v>289</v>
       </c>
       <c r="E444" s="1">
-        <v>10012</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13098,7 +13098,7 @@
         <v>380</v>
       </c>
       <c r="E445" s="1">
-        <v>5106</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13111,7 +13111,7 @@
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1">
-        <v>2193</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13128,7 +13128,7 @@
         <v>380</v>
       </c>
       <c r="E447" s="1">
-        <v>7590</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13145,7 +13145,7 @@
         <v>385</v>
       </c>
       <c r="E448" s="1">
-        <v>4298</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="449" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13158,7 +13158,7 @@
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1">
-        <v>1582</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13175,7 +13175,7 @@
         <v>385</v>
       </c>
       <c r="E450" s="1">
-        <v>5864</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="451" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13192,7 +13192,7 @@
         <v>266</v>
       </c>
       <c r="E451" s="1">
-        <v>8831</v>
+        <v>9232</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13209,7 +13209,7 @@
         <v>426</v>
       </c>
       <c r="E452" s="1">
-        <v>11130</v>
+        <v>11636</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13226,7 +13226,7 @@
         <v>215</v>
       </c>
       <c r="E453" s="1">
-        <v>17051</v>
+        <v>17826</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13239,7 +13239,7 @@
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1">
-        <v>6721</v>
+        <v>7027</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13256,7 +13256,7 @@
         <v>215</v>
       </c>
       <c r="E455" s="1">
-        <v>21160</v>
+        <v>22121</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13273,7 +13273,7 @@
         <v>262</v>
       </c>
       <c r="E456" s="1">
-        <v>12198</v>
+        <v>12752</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13286,7 +13286,7 @@
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1">
-        <v>5283</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13299,7 +13299,7 @@
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1">
-        <v>12893</v>
+        <v>13479</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13316,7 +13316,7 @@
         <v>262</v>
       </c>
       <c r="E459" s="1">
-        <v>15932</v>
+        <v>16657</v>
       </c>
     </row>
     <row r="460" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13333,7 +13333,7 @@
         <v>426</v>
       </c>
       <c r="E460" s="1">
-        <v>10122</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13346,7 +13346,7 @@
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1">
-        <v>3949</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13359,7 +13359,7 @@
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1">
-        <v>11546</v>
+        <v>12070</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13376,7 +13376,7 @@
         <v>426</v>
       </c>
       <c r="E463" s="1">
-        <v>13165</v>
+        <v>13763</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13393,7 +13393,7 @@
         <v>264</v>
       </c>
       <c r="E464" s="1">
-        <v>7289</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13406,7 +13406,7 @@
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1">
-        <v>3412</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13419,7 +13419,7 @@
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1">
-        <v>10339</v>
+        <v>10809</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13436,7 +13436,7 @@
         <v>264</v>
       </c>
       <c r="E467" s="1">
-        <v>10012</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13453,7 +13453,7 @@
         <v>380</v>
       </c>
       <c r="E468" s="1">
-        <v>5106</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13466,7 +13466,7 @@
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1">
-        <v>2193</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13479,7 +13479,7 @@
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1">
-        <v>8905</v>
+        <v>9309</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13496,7 +13496,7 @@
         <v>380</v>
       </c>
       <c r="E471" s="1">
-        <v>7590</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="472" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13513,7 +13513,7 @@
         <v>432</v>
       </c>
       <c r="E472" s="1">
-        <v>3274</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="473" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13530,7 +13530,7 @@
         <v>380</v>
       </c>
       <c r="E473" s="1">
-        <v>15380</v>
+        <v>16079</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13547,7 +13547,7 @@
         <v>380</v>
       </c>
       <c r="E474" s="1">
-        <v>17742</v>
+        <v>18548</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13560,7 +13560,7 @@
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1">
-        <v>23859</v>
+        <v>24944</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13573,7 +13573,7 @@
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1">
-        <v>8837</v>
+        <v>9239</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13590,7 +13590,7 @@
         <v>380</v>
       </c>
       <c r="E477" s="1">
-        <v>19989</v>
+        <v>20898</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13607,7 +13607,7 @@
         <v>385</v>
       </c>
       <c r="E478" s="1">
-        <v>12198</v>
+        <v>12752</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13620,7 +13620,7 @@
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1">
-        <v>7755</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="480" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13637,7 +13637,7 @@
         <v>385</v>
       </c>
       <c r="E480" s="1">
-        <v>15932</v>
+        <v>16657</v>
       </c>
     </row>
     <row r="481" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13654,7 +13654,7 @@
         <v>385</v>
       </c>
       <c r="E481" s="1">
-        <v>10122</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13667,7 +13667,7 @@
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1">
-        <v>5539</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13684,7 +13684,7 @@
         <v>385</v>
       </c>
       <c r="E483" s="1">
-        <v>13165</v>
+        <v>13763</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13701,7 +13701,7 @@
         <v>296</v>
       </c>
       <c r="E484" s="1">
-        <v>7289</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="485" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13714,7 +13714,7 @@
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1">
-        <v>3949</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="486" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13731,7 +13731,7 @@
         <v>296</v>
       </c>
       <c r="E486" s="1">
-        <v>10012</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13748,7 +13748,7 @@
         <v>326</v>
       </c>
       <c r="E487" s="1">
-        <v>5927</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="488" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13765,7 +13765,7 @@
         <v>326</v>
       </c>
       <c r="E488" s="1">
-        <v>8265</v>
+        <v>8641</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13782,7 +13782,7 @@
         <v>215</v>
       </c>
       <c r="E489" s="1">
-        <v>17051</v>
+        <v>17826</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13795,7 +13795,7 @@
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1">
-        <v>4825</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13812,7 +13812,7 @@
         <v>215</v>
       </c>
       <c r="E491" s="1">
-        <v>21160</v>
+        <v>22121</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13829,7 +13829,7 @@
         <v>301</v>
       </c>
       <c r="E492" s="1">
-        <v>14507</v>
+        <v>15166</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13842,7 +13842,7 @@
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1">
-        <v>4037</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13855,7 +13855,7 @@
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1">
-        <v>18227</v>
+        <v>19056</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13872,7 +13872,7 @@
         <v>262</v>
       </c>
       <c r="E495" s="1">
-        <v>12198</v>
+        <v>12752</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13885,7 +13885,7 @@
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1">
-        <v>3412</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13902,7 +13902,7 @@
         <v>262</v>
       </c>
       <c r="E497" s="1">
-        <v>15932</v>
+        <v>16657</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13919,7 +13919,7 @@
         <v>426</v>
       </c>
       <c r="E498" s="1">
-        <v>10122</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13932,7 +13932,7 @@
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1">
-        <v>25234</v>
+        <v>26381</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13945,7 +13945,7 @@
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1">
-        <v>31493</v>
+        <v>32925</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="D501" s="1"/>
       <c r="E501" s="1">
-        <v>2859</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13977,7 +13977,7 @@
         <v>426</v>
       </c>
       <c r="E502" s="1">
-        <v>13165</v>
+        <v>13763</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13994,7 +13994,7 @@
         <v>264</v>
       </c>
       <c r="E503" s="1">
-        <v>7289</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14007,7 +14007,7 @@
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1">
-        <v>36648</v>
+        <v>38313</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14020,7 +14020,7 @@
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1">
-        <v>18491</v>
+        <v>19332</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14033,7 +14033,7 @@
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1">
-        <v>24002</v>
+        <v>25093</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="D507" s="1"/>
       <c r="E507" s="1">
-        <v>2193</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14065,7 +14065,7 @@
         <v>264</v>
       </c>
       <c r="E508" s="1">
-        <v>10065</v>
+        <v>10523</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14082,7 +14082,7 @@
         <v>385</v>
       </c>
       <c r="E509" s="1">
-        <v>5106</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="510" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14095,7 +14095,7 @@
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1">
-        <v>13030</v>
+        <v>13622</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14108,7 +14108,7 @@
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1">
-        <v>17789</v>
+        <v>18598</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="D512" s="1"/>
       <c r="E512" s="1">
-        <v>1403</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14140,7 +14140,7 @@
         <v>385</v>
       </c>
       <c r="E513" s="1">
-        <v>7590</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="514" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14157,7 +14157,7 @@
         <v>296</v>
       </c>
       <c r="E514" s="1">
-        <v>4298</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="515" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14172,7 +14172,7 @@
       </c>
       <c r="D515" s="1"/>
       <c r="E515" s="1">
-        <v>1297</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="516" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14189,7 +14189,7 @@
         <v>296</v>
       </c>
       <c r="E516" s="1">
-        <v>5864</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14206,7 +14206,7 @@
         <v>344</v>
       </c>
       <c r="E517" s="1">
-        <v>2859</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="518" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14221,7 +14221,7 @@
       </c>
       <c r="D518" s="1"/>
       <c r="E518" s="1">
-        <v>1025</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14238,7 +14238,7 @@
         <v>344</v>
       </c>
       <c r="E519" s="1">
-        <v>4370</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="520" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14255,7 +14255,7 @@
         <v>961</v>
       </c>
       <c r="E520" s="1">
-        <v>2552</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="D521" s="1"/>
       <c r="E521" s="1">
-        <v>815</v>
+        <v>852</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14287,7 +14287,7 @@
         <v>961</v>
       </c>
       <c r="E522" s="1">
-        <v>3304</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="523" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14304,7 +14304,7 @@
         <v>280</v>
       </c>
       <c r="E523" s="1">
-        <v>14507</v>
+        <v>15166</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="D524" s="1"/>
       <c r="E524" s="1">
-        <v>3762</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="525" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14332,7 +14332,7 @@
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1">
-        <v>18227</v>
+        <v>19056</v>
       </c>
     </row>
     <row r="526" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14349,7 +14349,7 @@
         <v>293</v>
       </c>
       <c r="E526" s="1">
-        <v>12068</v>
+        <v>12617</v>
       </c>
     </row>
     <row r="527" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="D527" s="1"/>
       <c r="E527" s="1">
-        <v>3138</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="528" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14377,7 +14377,7 @@
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1">
-        <v>15932</v>
+        <v>16657</v>
       </c>
     </row>
     <row r="529" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14390,7 +14390,7 @@
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1">
-        <v>10122</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="530" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14403,7 +14403,7 @@
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1">
-        <v>7289</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14420,7 +14420,7 @@
         <v>284</v>
       </c>
       <c r="E531" s="1">
-        <v>9539</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="532" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="D532" s="1"/>
       <c r="E532" s="1">
-        <v>3412</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="533" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14448,7 +14448,7 @@
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1">
-        <v>12485</v>
+        <v>13053</v>
       </c>
     </row>
     <row r="534" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14465,7 +14465,7 @@
         <v>512</v>
       </c>
       <c r="E534" s="1">
-        <v>6367</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="535" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14480,7 +14480,7 @@
       </c>
       <c r="D535" s="1"/>
       <c r="E535" s="1">
-        <v>2539</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14493,7 +14493,7 @@
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1">
-        <v>8905</v>
+        <v>9309</v>
       </c>
     </row>
     <row r="537" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14510,7 +14510,7 @@
         <v>366</v>
       </c>
       <c r="E537" s="1">
-        <v>15965</v>
+        <v>16691</v>
       </c>
     </row>
     <row r="538" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="D538" s="1"/>
       <c r="E538" s="1">
-        <v>5429</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14542,7 +14542,7 @@
         <v>366</v>
       </c>
       <c r="E539" s="1">
-        <v>20077</v>
+        <v>20990</v>
       </c>
     </row>
     <row r="540" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14559,7 +14559,7 @@
         <v>426</v>
       </c>
       <c r="E540" s="1">
-        <v>9539</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="541" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="D541" s="1"/>
       <c r="E541" s="1">
-        <v>4096</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14591,7 +14591,7 @@
         <v>426</v>
       </c>
       <c r="E542" s="1">
-        <v>12839</v>
+        <v>13423</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14608,7 +14608,7 @@
         <v>264</v>
       </c>
       <c r="E543" s="1">
-        <v>6872</v>
+        <v>7184</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14623,7 +14623,7 @@
       </c>
       <c r="D544" s="1"/>
       <c r="E544" s="1">
-        <v>3148</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14636,7 +14636,7 @@
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1">
-        <v>9680</v>
+        <v>10120</v>
       </c>
     </row>
     <row r="546" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14649,7 +14649,7 @@
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1">
-        <v>16302</v>
+        <v>17043</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14666,7 +14666,7 @@
         <v>1014</v>
       </c>
       <c r="E547" s="1">
-        <v>1994</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="548" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14683,7 +14683,7 @@
         <v>140</v>
       </c>
       <c r="E548" s="1">
-        <v>21656</v>
+        <v>22640</v>
       </c>
     </row>
     <row r="549" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14696,7 +14696,7 @@
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1">
-        <v>25828</v>
+        <v>27002</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14713,7 +14713,7 @@
         <v>200</v>
       </c>
       <c r="E550" s="1">
-        <v>18904</v>
+        <v>19763</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14726,7 +14726,7 @@
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1">
-        <v>22641</v>
+        <v>23670</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14743,7 +14743,7 @@
         <v>203</v>
       </c>
       <c r="E552" s="1">
-        <v>12698</v>
+        <v>13276</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="D553" s="1"/>
       <c r="E553" s="1">
-        <v>3802</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="554" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14769,7 +14769,7 @@
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1">
-        <v>15584</v>
+        <v>16292</v>
       </c>
     </row>
     <row r="555" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14786,7 +14786,7 @@
         <v>266</v>
       </c>
       <c r="E555" s="1">
-        <v>4298</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14799,7 +14799,7 @@
       </c>
       <c r="D556" s="1"/>
       <c r="E556" s="1">
-        <v>1374</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="557" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14812,7 +14812,7 @@
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1">
-        <v>7164</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="558" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14829,7 +14829,7 @@
         <v>343</v>
       </c>
       <c r="E558" s="1">
-        <v>17262</v>
+        <v>18047</v>
       </c>
     </row>
     <row r="559" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14846,7 +14846,7 @@
         <v>289</v>
       </c>
       <c r="E559" s="1">
-        <v>10608</v>
+        <v>11091</v>
       </c>
     </row>
     <row r="560" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14863,7 +14863,7 @@
         <v>264</v>
       </c>
       <c r="E560" s="1">
-        <v>5977</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="561" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14880,7 +14880,7 @@
         <v>296</v>
       </c>
       <c r="E561" s="1">
-        <v>3733</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14897,7 +14897,7 @@
         <v>264</v>
       </c>
       <c r="E562" s="1">
-        <v>6106</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="563" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14910,7 +14910,7 @@
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1">
-        <v>2569</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="564" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14923,7 +14923,7 @@
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1">
-        <v>8666</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="565" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14940,7 +14940,7 @@
         <v>380</v>
       </c>
       <c r="E565" s="1">
-        <v>13004</v>
+        <v>13595</v>
       </c>
     </row>
     <row r="566" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14953,7 +14953,7 @@
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1">
-        <v>18019</v>
+        <v>18838</v>
       </c>
     </row>
     <row r="567" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14970,7 +14970,7 @@
         <v>296</v>
       </c>
       <c r="E567" s="1">
-        <v>7590</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="568" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14983,7 +14983,7 @@
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1">
-        <v>11293</v>
+        <v>11806</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15000,7 +15000,7 @@
         <v>326</v>
       </c>
       <c r="E569" s="1">
-        <v>5236</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15013,7 +15013,7 @@
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1">
-        <v>8052</v>
+        <v>8418</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15026,7 +15026,7 @@
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1">
-        <v>21160</v>
+        <v>22121</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15039,7 +15039,7 @@
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1">
-        <v>26236</v>
+        <v>27429</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15052,7 +15052,7 @@
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1">
-        <v>17903</v>
+        <v>18716</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15065,7 +15065,7 @@
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1">
-        <v>22667</v>
+        <v>23697</v>
       </c>
     </row>
     <row r="575" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15078,7 +15078,7 @@
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1">
-        <v>10673</v>
+        <v>11158</v>
       </c>
     </row>
     <row r="576" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15091,7 +15091,7 @@
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1">
-        <v>15315</v>
+        <v>16011</v>
       </c>
     </row>
     <row r="577" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15104,7 +15104,7 @@
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1">
-        <v>24209</v>
+        <v>25309</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15117,7 +15117,7 @@
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1">
-        <v>34574</v>
+        <v>36146</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15130,7 +15130,7 @@
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1">
-        <v>44088</v>
+        <v>46092</v>
       </c>
     </row>
     <row r="580" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15143,7 +15143,7 @@
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1">
-        <v>32184</v>
+        <v>33647</v>
       </c>
     </row>
     <row r="581" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15156,7 +15156,7 @@
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1">
-        <v>19752</v>
+        <v>20649</v>
       </c>
     </row>
     <row r="582" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15169,7 +15169,7 @@
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1">
-        <v>26959</v>
+        <v>28184</v>
       </c>
     </row>
     <row r="583" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15182,7 +15182,7 @@
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1">
-        <v>11944</v>
+        <v>12487</v>
       </c>
     </row>
     <row r="584" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15195,7 +15195,7 @@
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1">
-        <v>16950</v>
+        <v>17720</v>
       </c>
     </row>
     <row r="585" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15208,7 +15208,7 @@
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1">
-        <v>8547</v>
+        <v>8936</v>
       </c>
     </row>
     <row r="586" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="D586" s="1"/>
       <c r="E586" s="1">
-        <v>6304</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15236,7 +15236,7 @@
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1">
-        <v>13979</v>
+        <v>14614</v>
       </c>
     </row>
     <row r="588" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15249,7 +15249,7 @@
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1">
-        <v>5753</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="589" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15262,7 +15262,7 @@
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1">
-        <v>10122</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="590" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15275,7 +15275,7 @@
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1">
-        <v>29064</v>
+        <v>30385</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15288,7 +15288,7 @@
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1">
-        <v>39498</v>
+        <v>41293</v>
       </c>
     </row>
     <row r="592" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15301,7 +15301,7 @@
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1">
-        <v>18721</v>
+        <v>19572</v>
       </c>
     </row>
     <row r="593" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15314,7 +15314,7 @@
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1">
-        <v>27094</v>
+        <v>28326</v>
       </c>
     </row>
     <row r="594" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15327,7 +15327,7 @@
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1">
-        <v>23156</v>
+        <v>24209</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15340,7 +15340,7 @@
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1">
-        <v>32712</v>
+        <v>34199</v>
       </c>
     </row>
     <row r="596" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15353,7 +15353,7 @@
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1">
-        <v>11829</v>
+        <v>12367</v>
       </c>
     </row>
     <row r="597" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15366,7 +15366,7 @@
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1">
-        <v>12101</v>
+        <v>12651</v>
       </c>
     </row>
     <row r="598" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15379,7 +15379,7 @@
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1">
-        <v>18721</v>
+        <v>19572</v>
       </c>
     </row>
     <row r="599" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15392,7 +15392,7 @@
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1">
-        <v>8862</v>
+        <v>9264</v>
       </c>
     </row>
     <row r="600" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15405,7 +15405,7 @@
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1">
-        <v>14951</v>
+        <v>15631</v>
       </c>
     </row>
     <row r="601" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15418,7 +15418,7 @@
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1">
-        <v>4693</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="602" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15431,7 +15431,7 @@
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1">
-        <v>9196</v>
+        <v>9614</v>
       </c>
     </row>
     <row r="603" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15444,7 +15444,7 @@
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1">
-        <v>3440</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="604" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15457,7 +15457,7 @@
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1">
-        <v>7006</v>
+        <v>7324</v>
       </c>
     </row>
     <row r="605" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15470,7 +15470,7 @@
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1">
-        <v>7454</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="606" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15483,7 +15483,7 @@
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1">
-        <v>17903</v>
+        <v>18716</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15496,7 +15496,7 @@
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1">
-        <v>22667</v>
+        <v>23697</v>
       </c>
     </row>
     <row r="608" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15509,7 +15509,7 @@
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1">
-        <v>14084</v>
+        <v>14725</v>
       </c>
     </row>
     <row r="609" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15522,7 +15522,7 @@
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1">
-        <v>18191</v>
+        <v>19018</v>
       </c>
     </row>
     <row r="610" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15535,7 +15535,7 @@
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1">
-        <v>9185</v>
+        <v>9603</v>
       </c>
     </row>
     <row r="611" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15548,7 +15548,7 @@
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1">
-        <v>14540</v>
+        <v>15201</v>
       </c>
     </row>
     <row r="612" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15563,7 +15563,7 @@
         <v>1131</v>
       </c>
       <c r="E612" s="1">
-        <v>6106</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="613" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15578,7 +15578,7 @@
         <v>1134</v>
       </c>
       <c r="E613" s="1">
-        <v>16317</v>
+        <v>17059</v>
       </c>
     </row>
     <row r="614" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15591,7 +15591,7 @@
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1">
-        <v>3267</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="615" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15604,7 +15604,7 @@
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1">
-        <v>3816</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="616" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15617,7 +15617,7 @@
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1">
-        <v>5346</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="617" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15634,7 +15634,7 @@
         <v>200</v>
       </c>
       <c r="E617" s="1">
-        <v>5302</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="618" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15651,7 +15651,7 @@
         <v>191</v>
       </c>
       <c r="E618" s="1">
-        <v>4305</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="619" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15668,7 +15668,7 @@
         <v>174</v>
       </c>
       <c r="E619" s="1">
-        <v>3321</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="620" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15681,7 +15681,7 @@
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1">
-        <v>15730</v>
+        <v>16445</v>
       </c>
     </row>
     <row r="621" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15694,7 +15694,7 @@
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1">
-        <v>18020</v>
+        <v>18839</v>
       </c>
     </row>
     <row r="622" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15707,7 +15707,7 @@
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1">
-        <v>12184</v>
+        <v>12737</v>
       </c>
     </row>
     <row r="623" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15720,7 +15720,7 @@
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1">
-        <v>14100</v>
+        <v>14741</v>
       </c>
     </row>
     <row r="624" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15733,7 +15733,7 @@
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1">
-        <v>9900</v>
+        <v>10350</v>
       </c>
     </row>
     <row r="625" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15746,7 +15746,7 @@
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1">
-        <v>11432</v>
+        <v>11952</v>
       </c>
     </row>
     <row r="626" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15759,7 +15759,7 @@
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1">
-        <v>7871</v>
+        <v>8228</v>
       </c>
     </row>
     <row r="627" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15772,7 +15772,7 @@
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1">
-        <v>9020</v>
+        <v>9430</v>
       </c>
     </row>
     <row r="628" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15785,7 +15785,7 @@
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1">
-        <v>6106</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="629" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15798,7 +15798,7 @@
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1">
-        <v>7071</v>
+        <v>7392</v>
       </c>
     </row>
     <row r="630" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15811,7 +15811,7 @@
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1">
-        <v>4934</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="631" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15824,7 +15824,7 @@
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1">
-        <v>5804</v>
+        <v>6067</v>
       </c>
     </row>
     <row r="632" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15837,7 +15837,7 @@
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1">
-        <v>7871</v>
+        <v>8228</v>
       </c>
     </row>
     <row r="633" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15850,7 +15850,7 @@
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1">
-        <v>9020</v>
+        <v>9430</v>
       </c>
     </row>
     <row r="634" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15863,7 +15863,7 @@
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1">
-        <v>6106</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="635" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15876,7 +15876,7 @@
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1">
-        <v>7071</v>
+        <v>7392</v>
       </c>
     </row>
     <row r="636" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15889,7 +15889,7 @@
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1">
-        <v>4934</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="637" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15902,7 +15902,7 @@
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1">
-        <v>6311</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="638" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15915,7 +15915,7 @@
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1">
-        <v>3746</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="639" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15928,7 +15928,7 @@
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1">
-        <v>3746</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="640" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15945,7 +15945,7 @@
         <v>1189</v>
       </c>
       <c r="E640" s="1">
-        <v>11102</v>
+        <v>11607</v>
       </c>
     </row>
     <row r="641" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15962,7 +15962,7 @@
         <v>326</v>
       </c>
       <c r="E641" s="1">
-        <v>5982</v>
+        <v>6254</v>
       </c>
     </row>
     <row r="642" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15979,7 +15979,7 @@
         <v>253</v>
       </c>
       <c r="E642" s="1">
-        <v>4530</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="643" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15996,7 +15996,7 @@
         <v>426</v>
       </c>
       <c r="E643" s="1">
-        <v>10602</v>
+        <v>11084</v>
       </c>
     </row>
     <row r="644" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16013,7 +16013,7 @@
         <v>321</v>
       </c>
       <c r="E644" s="1">
-        <v>5982</v>
+        <v>6254</v>
       </c>
     </row>
     <row r="645" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16030,7 +16030,7 @@
         <v>326</v>
       </c>
       <c r="E645" s="1">
-        <v>3733</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="646" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16047,7 +16047,7 @@
         <v>262</v>
       </c>
       <c r="E646" s="1">
-        <v>10608</v>
+        <v>11091</v>
       </c>
     </row>
     <row r="647" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16060,7 +16060,7 @@
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1">
-        <v>2822</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="648" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16073,7 +16073,7 @@
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1">
-        <v>3639</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="649" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16086,7 +16086,7 @@
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1">
-        <v>2822</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="650" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16099,7 +16099,7 @@
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1">
-        <v>3639</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="651" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16112,7 +16112,7 @@
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1">
-        <v>2965</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="652" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16125,7 +16125,7 @@
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1">
-        <v>4745</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="653" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16138,7 +16138,7 @@
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1">
-        <v>7373</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="654" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16151,7 +16151,7 @@
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1">
-        <v>10474</v>
+        <v>10950</v>
       </c>
     </row>
     <row r="655" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16164,7 +16164,7 @@
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1">
-        <v>6433</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="656" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16177,7 +16177,7 @@
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1">
-        <v>8499</v>
+        <v>8885</v>
       </c>
     </row>
     <row r="657" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16190,7 +16190,7 @@
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1">
-        <v>4825</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="658" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16203,7 +16203,7 @@
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1">
-        <v>6522</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="659" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16216,7 +16216,7 @@
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1">
-        <v>13030</v>
+        <v>13622</v>
       </c>
     </row>
     <row r="660" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16229,7 +16229,7 @@
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1">
-        <v>14507</v>
+        <v>15166</v>
       </c>
     </row>
     <row r="661" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16242,7 +16242,7 @@
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1">
-        <v>10563</v>
+        <v>11043</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16255,7 +16255,7 @@
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1">
-        <v>11955</v>
+        <v>12498</v>
       </c>
     </row>
     <row r="663" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16268,7 +16268,7 @@
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1">
-        <v>6721</v>
+        <v>7027</v>
       </c>
     </row>
     <row r="664" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16281,7 +16281,7 @@
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1">
-        <v>7656</v>
+        <v>8004</v>
       </c>
     </row>
     <row r="665" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16298,7 +16298,7 @@
         <v>326</v>
       </c>
       <c r="E665" s="1">
-        <v>16931</v>
+        <v>17701</v>
       </c>
     </row>
     <row r="666" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16315,7 +16315,7 @@
         <v>228</v>
       </c>
       <c r="E666" s="1">
-        <v>12085</v>
+        <v>12634</v>
       </c>
     </row>
     <row r="667" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16328,7 +16328,7 @@
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1">
-        <v>18020</v>
+        <v>18839</v>
       </c>
     </row>
     <row r="668" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16341,7 +16341,7 @@
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1">
-        <v>22101</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="669" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16354,7 +16354,7 @@
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1">
-        <v>9020</v>
+        <v>9430</v>
       </c>
     </row>
     <row r="670" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16367,7 +16367,7 @@
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1">
-        <v>9020</v>
+        <v>9430</v>
       </c>
     </row>
     <row r="671" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16380,7 +16380,7 @@
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1">
-        <v>6100</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="672" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16393,7 +16393,7 @@
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1">
-        <v>3733</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="673" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16406,7 +16406,7 @@
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1">
-        <v>2768</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="674" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16419,7 +16419,7 @@
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1">
-        <v>1745</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="675" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16432,7 +16432,7 @@
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1">
-        <v>3733</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="676" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16445,7 +16445,7 @@
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1">
-        <v>2768</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="677" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16458,7 +16458,7 @@
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1">
-        <v>2768</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="678" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16471,7 +16471,7 @@
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1">
-        <v>16432</v>
+        <v>17179</v>
       </c>
     </row>
     <row r="679" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16484,7 +16484,7 @@
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1">
-        <v>16432</v>
+        <v>17179</v>
       </c>
     </row>
     <row r="680" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16497,7 +16497,7 @@
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1">
-        <v>13429</v>
+        <v>14039</v>
       </c>
     </row>
     <row r="681" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16510,7 +16510,7 @@
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1">
-        <v>13429</v>
+        <v>14039</v>
       </c>
     </row>
     <row r="682" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16523,7 +16523,7 @@
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1">
-        <v>21360</v>
+        <v>22331</v>
       </c>
     </row>
     <row r="683" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16536,7 +16536,7 @@
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1">
-        <v>21360</v>
+        <v>22331</v>
       </c>
     </row>
     <row r="684" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16549,7 +16549,7 @@
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1">
-        <v>20194</v>
+        <v>21112</v>
       </c>
     </row>
     <row r="685" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16562,7 +16562,7 @@
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1">
-        <v>20194</v>
+        <v>21112</v>
       </c>
     </row>
     <row r="686" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16575,7 +16575,7 @@
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1">
-        <v>74339</v>
+        <v>77718</v>
       </c>
     </row>
     <row r="687" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16588,7 +16588,7 @@
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1">
-        <v>13429</v>
+        <v>14039</v>
       </c>
     </row>
     <row r="688" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16601,7 +16601,7 @@
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1">
-        <v>20127</v>
+        <v>21042</v>
       </c>
     </row>
     <row r="689" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16614,7 +16614,7 @@
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1">
-        <v>16679</v>
+        <v>17437</v>
       </c>
     </row>
     <row r="690" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16627,7 +16627,7 @@
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1">
-        <v>74339</v>
+        <v>77718</v>
       </c>
     </row>
     <row r="691" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16640,7 +16640,7 @@
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1">
-        <v>3990</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="692" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16653,7 +16653,7 @@
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1">
-        <v>941</v>
+        <v>983</v>
       </c>
     </row>
     <row r="693" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16666,7 +16666,7 @@
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1">
-        <v>19204</v>
+        <v>20077</v>
       </c>
     </row>
     <row r="694" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16679,7 +16679,7 @@
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1">
-        <v>61222</v>
+        <v>64004</v>
       </c>
     </row>
     <row r="695" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16692,7 +16692,7 @@
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1">
-        <v>8989</v>
+        <v>9398</v>
       </c>
     </row>
     <row r="696" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16705,7 +16705,7 @@
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1">
-        <v>17051</v>
+        <v>17826</v>
       </c>
     </row>
     <row r="697" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16718,7 +16718,7 @@
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1">
-        <v>15932</v>
+        <v>16657</v>
       </c>
     </row>
     <row r="698" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16731,7 +16731,7 @@
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1">
-        <v>61222</v>
+        <v>64004</v>
       </c>
     </row>
     <row r="699" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16744,7 +16744,7 @@
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1">
-        <v>3267</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="700" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16757,7 +16757,7 @@
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1">
-        <v>809</v>
+        <v>845</v>
       </c>
     </row>
     <row r="701" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16770,7 +16770,7 @@
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1">
-        <v>15206</v>
+        <v>15898</v>
       </c>
     </row>
     <row r="702" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16783,7 +16783,7 @@
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1">
-        <v>47792</v>
+        <v>49964</v>
       </c>
     </row>
     <row r="703" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16796,7 +16796,7 @@
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1">
-        <v>6663</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="704" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16809,7 +16809,7 @@
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1">
-        <v>12198</v>
+        <v>12752</v>
       </c>
     </row>
     <row r="705" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16822,7 +16822,7 @@
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1">
-        <v>13956</v>
+        <v>14590</v>
       </c>
     </row>
     <row r="706" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16835,7 +16835,7 @@
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1">
-        <v>47792</v>
+        <v>49964</v>
       </c>
     </row>
     <row r="707" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16848,7 +16848,7 @@
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1">
-        <v>3267</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="708" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16861,7 +16861,7 @@
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1">
-        <v>809</v>
+        <v>845</v>
       </c>
     </row>
     <row r="709" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16874,7 +16874,7 @@
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1">
-        <v>10919</v>
+        <v>11415</v>
       </c>
     </row>
     <row r="710" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16887,7 +16887,7 @@
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1">
-        <v>7401</v>
+        <v>7737</v>
       </c>
     </row>
     <row r="711" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16900,7 +16900,7 @@
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1">
-        <v>1486</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="712" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16913,7 +16913,7 @@
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1">
-        <v>5927</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="713" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16926,7 +16926,7 @@
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1">
-        <v>92000</v>
+        <v>96181</v>
       </c>
     </row>
     <row r="714" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16939,7 +16939,7 @@
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1">
-        <v>6953</v>
+        <v>7269</v>
       </c>
     </row>
     <row r="715" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16952,7 +16952,7 @@
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1">
-        <v>5963</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="716" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16965,7 +16965,7 @@
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1">
-        <v>4226</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16978,7 +16978,7 @@
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1">
-        <v>7119</v>
+        <v>7443</v>
       </c>
     </row>
     <row r="718" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16995,7 +16995,7 @@
         <v>228</v>
       </c>
       <c r="E718" s="1">
-        <v>8006</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="719" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17012,7 +17012,7 @@
         <v>228</v>
       </c>
       <c r="E719" s="1">
-        <v>5337</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="720" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17025,7 +17025,7 @@
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1">
-        <v>1696</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="721" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17038,7 +17038,7 @@
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1">
-        <v>971</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="722" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17051,7 +17051,7 @@
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1">
-        <v>975</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="723" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17064,7 +17064,7 @@
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1">
-        <v>717</v>
+        <v>750</v>
       </c>
     </row>
     <row r="724" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17077,7 +17077,7 @@
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1">
-        <v>1297</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="725" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17092,7 +17092,7 @@
         <v>326</v>
       </c>
       <c r="E725" s="1">
-        <v>908</v>
+        <v>949</v>
       </c>
     </row>
     <row r="726" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17107,7 +17107,7 @@
         <v>961</v>
       </c>
       <c r="E726" s="1">
-        <v>754</v>
+        <v>788</v>
       </c>
     </row>
     <row r="727" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17120,7 +17120,7 @@
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1">
-        <v>2950</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="728" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17133,7 +17133,7 @@
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1">
-        <v>2650</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="729" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17146,7 +17146,7 @@
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1">
-        <v>4278</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="730" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17159,7 +17159,7 @@
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1">
-        <v>717</v>
+        <v>750</v>
       </c>
     </row>
     <row r="731" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17172,7 +17172,7 @@
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1">
-        <v>888</v>
+        <v>928</v>
       </c>
     </row>
     <row r="732" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17185,7 +17185,7 @@
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1">
-        <v>651</v>
+        <v>681</v>
       </c>
     </row>
     <row r="733" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17202,7 +17202,7 @@
         <v>385</v>
       </c>
       <c r="E733" s="1">
-        <v>1433</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="734" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17217,7 +17217,7 @@
         <v>266</v>
       </c>
       <c r="E734" s="1">
-        <v>1054</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="735" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17232,7 +17232,7 @@
         <v>385</v>
       </c>
       <c r="E735" s="1">
-        <v>908</v>
+        <v>949</v>
       </c>
     </row>
     <row r="736" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17245,7 +17245,7 @@
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1">
-        <v>549</v>
+        <v>574</v>
       </c>
     </row>
     <row r="737" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17258,7 +17258,7 @@
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1">
-        <v>1856</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="738" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17271,7 +17271,7 @@
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1">
-        <v>1681</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="739" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17284,7 +17284,7 @@
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1">
-        <v>2734</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="740" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17297,7 +17297,7 @@
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1">
-        <v>1469</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="741" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17310,7 +17310,7 @@
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1">
-        <v>2135</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="742" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17323,7 +17323,7 @@
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1">
-        <v>1650</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="743" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17336,7 +17336,7 @@
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1">
-        <v>975</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="744" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17349,7 +17349,7 @@
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1">
-        <v>801</v>
+        <v>837</v>
       </c>
     </row>
     <row r="745" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17362,7 +17362,7 @@
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1">
-        <v>6100</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="746" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17375,7 +17375,7 @@
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1">
-        <v>2187</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="747" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17388,7 +17388,7 @@
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1">
-        <v>2187</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="748" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17401,7 +17401,7 @@
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1">
-        <v>975</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="749" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17414,7 +17414,7 @@
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1">
-        <v>2046</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="750" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17427,7 +17427,7 @@
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1">
-        <v>2046</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="751" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17440,7 +17440,7 @@
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1">
-        <v>1394</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="752" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17453,7 +17453,7 @@
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1">
-        <v>1890</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="753" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17466,7 +17466,7 @@
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1">
-        <v>1679</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="754" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17479,7 +17479,7 @@
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1">
-        <v>2503</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="755" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17492,7 +17492,7 @@
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1">
-        <v>8980</v>
+        <v>9389</v>
       </c>
     </row>
     <row r="756" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17505,7 +17505,7 @@
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1">
-        <v>7273</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="757" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17518,7 +17518,7 @@
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1">
-        <v>3396</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="758" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17531,7 +17531,7 @@
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1">
-        <v>6136</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="759" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17544,7 +17544,7 @@
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1">
-        <v>1650</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="760" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17557,7 +17557,7 @@
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1">
-        <v>3940</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="761" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17574,7 +17574,7 @@
         <v>253</v>
       </c>
       <c r="E761" s="1">
-        <v>1607</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="762" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17591,7 +17591,7 @@
         <v>1405</v>
       </c>
       <c r="E762" s="1">
-        <v>1206</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="763" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17608,7 +17608,7 @@
         <v>321</v>
       </c>
       <c r="E763" s="1">
-        <v>1607</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="764" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17625,7 +17625,7 @@
         <v>301</v>
       </c>
       <c r="E764" s="1">
-        <v>2439</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="765" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17642,7 +17642,7 @@
         <v>264</v>
       </c>
       <c r="E765" s="1">
-        <v>1718</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="766" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17659,7 +17659,7 @@
         <v>426</v>
       </c>
       <c r="E766" s="1">
-        <v>3783</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="767" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17676,7 +17676,7 @@
         <v>296</v>
       </c>
       <c r="E767" s="1">
-        <v>3027</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="768" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17693,7 +17693,7 @@
         <v>344</v>
       </c>
       <c r="E768" s="1">
-        <v>1098</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="769" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17710,7 +17710,7 @@
         <v>961</v>
       </c>
       <c r="E769" s="1">
-        <v>884</v>
+        <v>925</v>
       </c>
     </row>
     <row r="770" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17727,7 +17727,7 @@
         <v>257</v>
       </c>
       <c r="E770" s="1">
-        <v>7512</v>
+        <v>7853</v>
       </c>
     </row>
     <row r="771" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17744,7 +17744,7 @@
         <v>288</v>
       </c>
       <c r="E771" s="1">
-        <v>6010</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="772" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17761,7 +17761,7 @@
         <v>130</v>
       </c>
       <c r="E772" s="1">
-        <v>4510</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="773" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17778,7 +17778,7 @@
         <v>289</v>
       </c>
       <c r="E773" s="1">
-        <v>1955</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="774" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17793,7 +17793,7 @@
         <v>47</v>
       </c>
       <c r="E774" s="1">
-        <v>8825</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="775" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17806,7 +17806,7 @@
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1">
-        <v>15254</v>
+        <v>15947</v>
       </c>
     </row>
     <row r="776" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17821,7 +17821,7 @@
         <v>687</v>
       </c>
       <c r="E776" s="1">
-        <v>7334</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="777" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17836,7 +17836,7 @@
         <v>116</v>
       </c>
       <c r="E777" s="1">
-        <v>6417</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="778" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17851,7 +17851,7 @@
         <v>701</v>
       </c>
       <c r="E778" s="1">
-        <v>3783</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="779" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17866,7 +17866,7 @@
         <v>15</v>
       </c>
       <c r="E779" s="1">
-        <v>3027</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="780" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17881,7 +17881,7 @@
         <v>973</v>
       </c>
       <c r="E780" s="1">
-        <v>2522</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="781" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17896,7 +17896,7 @@
         <v>1438</v>
       </c>
       <c r="E781" s="1">
-        <v>28648</v>
+        <v>29951</v>
       </c>
     </row>
     <row r="782" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17911,7 +17911,7 @@
         <v>1441</v>
       </c>
       <c r="E782" s="1">
-        <v>22290</v>
+        <v>23304</v>
       </c>
     </row>
     <row r="783" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17926,7 +17926,7 @@
         <v>1442</v>
       </c>
       <c r="E783" s="1">
-        <v>17989</v>
+        <v>18807</v>
       </c>
     </row>
     <row r="784" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17941,7 +17941,7 @@
         <v>1443</v>
       </c>
       <c r="E784" s="1">
-        <v>16389</v>
+        <v>17134</v>
       </c>
     </row>
     <row r="785" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17954,7 +17954,7 @@
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1">
-        <v>3783</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="786" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17967,7 +17967,7 @@
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1">
-        <v>1020</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="787" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17980,7 +17980,7 @@
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1">
-        <v>2053</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="788" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17993,7 +17993,7 @@
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1">
-        <v>851</v>
+        <v>890</v>
       </c>
     </row>
     <row r="789" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18006,7 +18006,7 @@
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1">
-        <v>1881</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="790" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18019,7 +18019,7 @@
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1">
-        <v>1355</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="791" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18032,7 +18032,7 @@
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1">
-        <v>1126</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="792" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18045,7 +18045,7 @@
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1">
-        <v>1126</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="793" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18058,7 +18058,7 @@
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1">
-        <v>2704</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="794" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18071,7 +18071,7 @@
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1">
-        <v>1802</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="795" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18084,7 +18084,7 @@
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1">
-        <v>1679</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="796" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18099,7 +18099,7 @@
         <v>45</v>
       </c>
       <c r="E796" s="1">
-        <v>1196</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="797" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18114,7 +18114,7 @@
         <v>121</v>
       </c>
       <c r="E797" s="1">
-        <v>884</v>
+        <v>925</v>
       </c>
     </row>
     <row r="798" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18127,7 +18127,7 @@
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1">
-        <v>5546</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="799" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18140,7 +18140,7 @@
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1">
-        <v>1388</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="800" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18153,7 +18153,7 @@
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1">
-        <v>4576</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="801" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18170,7 +18170,7 @@
         <v>266</v>
       </c>
       <c r="E801" s="1">
-        <v>1833</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="802" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18187,7 +18187,7 @@
         <v>344</v>
       </c>
       <c r="E802" s="1">
-        <v>1376</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="803" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18204,7 +18204,7 @@
         <v>961</v>
       </c>
       <c r="E803" s="1">
-        <v>1262</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="804" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18219,7 +18219,7 @@
         <v>296</v>
       </c>
       <c r="E804" s="1">
-        <v>1651</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="805" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18236,7 +18236,7 @@
         <v>326</v>
       </c>
       <c r="E805" s="1">
-        <v>975</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="806" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18249,7 +18249,7 @@
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1">
-        <v>2522</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="807" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18262,7 +18262,7 @@
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1">
-        <v>1514</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="808" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18275,7 +18275,7 @@
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1">
-        <v>2522</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="809" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18288,7 +18288,7 @@
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1">
-        <v>2015</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="810" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18301,7 +18301,7 @@
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1">
-        <v>2015</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="811" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18314,7 +18314,7 @@
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1">
-        <v>1514</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="812" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18327,7 +18327,7 @@
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1">
-        <v>10085</v>
+        <v>10543</v>
       </c>
     </row>
     <row r="813" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18344,7 +18344,7 @@
         <v>266</v>
       </c>
       <c r="E813" s="1">
-        <v>1833</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="814" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18361,7 +18361,7 @@
         <v>326</v>
       </c>
       <c r="E814" s="1">
-        <v>1386</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="815" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18378,7 +18378,7 @@
         <v>137</v>
       </c>
       <c r="E815" s="1">
-        <v>1518</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="816" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18391,7 +18391,7 @@
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1">
-        <v>3060</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="817" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18404,7 +18404,7 @@
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1">
-        <v>3355</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="818" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18419,7 +18419,7 @@
       </c>
       <c r="D818" s="1"/>
       <c r="E818" s="1">
-        <v>915</v>
+        <v>957</v>
       </c>
     </row>
     <row r="819" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18432,7 +18432,7 @@
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1">
-        <v>3762</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="820" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18458,7 +18458,7 @@
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1">
-        <v>5044</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="822" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18471,7 +18471,7 @@
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1">
-        <v>2681</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="823" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18497,7 +18497,7 @@
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1">
-        <v>3746</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="825" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18510,7 +18510,7 @@
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1">
-        <v>2246</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="826" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18536,7 +18536,7 @@
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1">
-        <v>3115</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="828" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18549,7 +18549,7 @@
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1">
-        <v>3658</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="829" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18562,7 +18562,7 @@
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1">
-        <v>7654</v>
+        <v>8002</v>
       </c>
     </row>
     <row r="830" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18575,7 +18575,7 @@
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1">
-        <v>915</v>
+        <v>957</v>
       </c>
     </row>
     <row r="831" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18588,7 +18588,7 @@
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1">
-        <v>3268</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="832" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18601,7 +18601,7 @@
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1">
-        <v>2567</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="833" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18614,7 +18614,7 @@
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1">
-        <v>4613</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="834" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18627,7 +18627,7 @@
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1">
-        <v>3750</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="835" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18640,7 +18640,7 @@
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1">
-        <v>3934</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="836" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18653,7 +18653,7 @@
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1">
-        <v>1465</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="837" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18666,7 +18666,7 @@
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1">
-        <v>8505</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="838" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18679,7 +18679,7 @@
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1">
-        <v>4046</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="839" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18692,7 +18692,7 @@
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1">
-        <v>2127</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="840" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18705,7 +18705,7 @@
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1">
-        <v>3699</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="841" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18718,7 +18718,7 @@
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1">
-        <v>2127</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="842" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18731,7 +18731,7 @@
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1">
-        <v>3699</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="843" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18744,7 +18744,7 @@
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1">
-        <v>3367</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="844" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18757,7 +18757,7 @@
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="845" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18770,7 +18770,7 @@
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1">
-        <v>3958</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="846" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18783,7 +18783,7 @@
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1">
-        <v>3057</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="847" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18796,7 +18796,7 @@
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="848" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18809,7 +18809,7 @@
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1">
-        <v>4133</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="849" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18822,7 +18822,7 @@
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1">
-        <v>3248</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="850" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18848,7 +18848,7 @@
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1">
-        <v>3057</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="852" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18861,7 +18861,7 @@
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="853" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18874,7 +18874,7 @@
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="854" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18887,7 +18887,7 @@
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1">
-        <v>3379</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="855" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18900,7 +18900,7 @@
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="856" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18913,7 +18913,7 @@
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="857" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18926,7 +18926,7 @@
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="858" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18939,7 +18939,7 @@
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1">
-        <v>4133</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="859" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18952,7 +18952,7 @@
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1">
-        <v>3561</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="860" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18965,7 +18965,7 @@
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1">
-        <v>3942</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="861" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18978,7 +18978,7 @@
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1">
-        <v>4476</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="862" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18991,7 +18991,7 @@
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1">
-        <v>4951</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="863" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19004,7 +19004,7 @@
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1">
-        <v>3057</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="864" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19017,7 +19017,7 @@
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="865" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19030,7 +19030,7 @@
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="866" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19043,7 +19043,7 @@
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1">
-        <v>3379</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="867" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19056,7 +19056,7 @@
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="868" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19069,7 +19069,7 @@
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="869" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19082,7 +19082,7 @@
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="870" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19095,7 +19095,7 @@
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1">
-        <v>4133</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="871" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19108,7 +19108,7 @@
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="872" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19121,7 +19121,7 @@
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="873" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19134,7 +19134,7 @@
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="874" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19147,7 +19147,7 @@
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1">
-        <v>2305</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="875" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19160,7 +19160,7 @@
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="876" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19173,7 +19173,7 @@
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="877" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19186,7 +19186,7 @@
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="878" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19199,7 +19199,7 @@
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1">
-        <v>2694</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="879" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19212,7 +19212,7 @@
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1">
-        <v>1606</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="880" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19225,7 +19225,7 @@
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1">
-        <v>2090</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="881" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19238,7 +19238,7 @@
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19251,7 +19251,7 @@
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1">
-        <v>2090</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="883" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19264,7 +19264,7 @@
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1">
-        <v>2092</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="884" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19277,7 +19277,7 @@
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1">
-        <v>1467</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="885" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19290,7 +19290,7 @@
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="886" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19303,7 +19303,7 @@
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="887" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19316,7 +19316,7 @@
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1">
-        <v>716</v>
+        <v>749</v>
       </c>
     </row>
     <row r="888" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19329,7 +19329,7 @@
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1">
-        <v>813</v>
+        <v>850</v>
       </c>
     </row>
     <row r="889" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19342,7 +19342,7 @@
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1">
-        <v>1203</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="890" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19355,7 +19355,7 @@
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1">
-        <v>585</v>
+        <v>612</v>
       </c>
     </row>
     <row r="891" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19368,7 +19368,7 @@
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="892" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19381,7 +19381,7 @@
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1">
-        <v>3077</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="893" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19394,7 +19394,7 @@
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1">
-        <v>3720</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="894" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19407,7 +19407,7 @@
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1">
-        <v>2702</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="895" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19420,7 +19420,7 @@
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1">
-        <v>3302</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="896" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19433,7 +19433,7 @@
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1">
-        <v>2831</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="897" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19446,7 +19446,7 @@
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1">
-        <v>3057</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="898" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19459,7 +19459,7 @@
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1">
-        <v>3597</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="899" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19472,7 +19472,7 @@
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="900" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19485,7 +19485,7 @@
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="901" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19498,7 +19498,7 @@
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1">
-        <v>3078</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="902" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19511,7 +19511,7 @@
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1">
-        <v>3078</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="903" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19524,7 +19524,7 @@
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1">
-        <v>2694</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="904" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19537,7 +19537,7 @@
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1">
-        <v>3078</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="905" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19550,7 +19550,7 @@
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1">
-        <v>3078</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="906" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19563,7 +19563,7 @@
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1">
-        <v>3078</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="907" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19576,7 +19576,7 @@
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1">
-        <v>3289</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="908" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19589,7 +19589,7 @@
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1">
-        <v>2831</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="909" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19602,7 +19602,7 @@
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1">
-        <v>3057</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="910" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19615,7 +19615,7 @@
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1">
-        <v>3597</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="911" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19628,7 +19628,7 @@
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="912" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19641,7 +19641,7 @@
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="913" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19654,7 +19654,7 @@
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1">
-        <v>3078</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="914" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19667,7 +19667,7 @@
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1">
-        <v>3078</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="915" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19680,7 +19680,7 @@
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1">
-        <v>2694</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="916" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19693,7 +19693,7 @@
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1">
-        <v>3078</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="917" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19706,7 +19706,7 @@
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1">
-        <v>3078</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="918" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19719,7 +19719,7 @@
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1">
-        <v>3289</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="919" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19732,7 +19732,7 @@
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1">
-        <v>3597</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="920" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19745,7 +19745,7 @@
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1">
-        <v>2831</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="921" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19758,7 +19758,7 @@
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1">
-        <v>3597</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="922" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19771,7 +19771,7 @@
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1">
-        <v>3788</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="923" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19784,7 +19784,7 @@
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1">
-        <v>4241</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="924" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19797,7 +19797,7 @@
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="925" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19810,7 +19810,7 @@
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1">
-        <v>2609</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="926" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19823,7 +19823,7 @@
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1">
-        <v>2609</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="927" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19836,7 +19836,7 @@
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1">
-        <v>2306</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="928" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19849,7 +19849,7 @@
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1">
-        <v>2609</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="929" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19862,7 +19862,7 @@
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1">
-        <v>2609</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="930" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19875,7 +19875,7 @@
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1">
-        <v>2800</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="931" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19888,7 +19888,7 @@
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1">
-        <v>1547</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="932" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19901,7 +19901,7 @@
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="933" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19914,7 +19914,7 @@
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="934" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19927,7 +19927,7 @@
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1">
-        <v>1757</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="935" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19940,7 +19940,7 @@
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1">
-        <v>1757</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="936" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19953,7 +19953,7 @@
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="937" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19966,7 +19966,7 @@
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="938" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19979,7 +19979,7 @@
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="939" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19992,7 +19992,7 @@
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1">
-        <v>2306</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="940" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20005,7 +20005,7 @@
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1">
-        <v>1329</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="941" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20018,7 +20018,7 @@
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="942" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20031,7 +20031,7 @@
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="943" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20044,7 +20044,7 @@
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1">
-        <v>1569</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="944" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20057,7 +20057,7 @@
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1">
-        <v>1569</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="945" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20070,7 +20070,7 @@
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="946" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20083,7 +20083,7 @@
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="947" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20096,7 +20096,7 @@
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="948" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20109,7 +20109,7 @@
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="949" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20122,7 +20122,7 @@
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1">
-        <v>2090</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="950" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20135,7 +20135,7 @@
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1">
-        <v>1089</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="951" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20148,7 +20148,7 @@
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1">
-        <v>1388</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="952" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20161,7 +20161,7 @@
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1">
-        <v>1388</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="953" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20174,7 +20174,7 @@
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1">
-        <v>1137</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="954" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20187,7 +20187,7 @@
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1">
-        <v>1137</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="955" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20200,7 +20200,7 @@
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1">
-        <v>1388</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="956" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20213,7 +20213,7 @@
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1">
-        <v>1388</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="957" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20226,7 +20226,7 @@
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1">
-        <v>1388</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="958" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20239,7 +20239,7 @@
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1">
-        <v>1388</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="959" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20252,7 +20252,7 @@
       <c r="C959" s="1"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1">
-        <v>1667</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="960" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20265,7 +20265,7 @@
       <c r="C960" s="1"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1">
-        <v>716</v>
+        <v>749</v>
       </c>
     </row>
     <row r="961" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20278,7 +20278,7 @@
       <c r="C961" s="1"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="962" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20291,7 +20291,7 @@
       <c r="C962" s="1"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="963" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20304,7 +20304,7 @@
       <c r="C963" s="1"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1">
-        <v>813</v>
+        <v>850</v>
       </c>
     </row>
     <row r="964" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20317,7 +20317,7 @@
       <c r="C964" s="1"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1">
-        <v>813</v>
+        <v>850</v>
       </c>
     </row>
     <row r="965" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20330,7 +20330,7 @@
       <c r="C965" s="1"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="966" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20343,7 +20343,7 @@
       <c r="C966" s="1"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="967" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20356,7 +20356,7 @@
       <c r="C967" s="1"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="968" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20369,7 +20369,7 @@
       <c r="C968" s="1"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="969" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20382,7 +20382,7 @@
       <c r="C969" s="1"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1">
-        <v>1228</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="970" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20395,7 +20395,7 @@
       <c r="C970" s="1"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1">
-        <v>488</v>
+        <v>511</v>
       </c>
     </row>
     <row r="971" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20408,7 +20408,7 @@
       <c r="C971" s="1"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1">
-        <v>908</v>
+        <v>949</v>
       </c>
     </row>
     <row r="972" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20421,7 +20421,7 @@
       <c r="C972" s="1"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1">
-        <v>908</v>
+        <v>949</v>
       </c>
     </row>
     <row r="973" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20434,7 +20434,7 @@
       <c r="C973" s="1"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1">
-        <v>716</v>
+        <v>749</v>
       </c>
     </row>
     <row r="974" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20447,7 +20447,7 @@
       <c r="C974" s="1"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1">
-        <v>716</v>
+        <v>749</v>
       </c>
     </row>
     <row r="975" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20460,7 +20460,7 @@
       <c r="C975" s="1"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1">
-        <v>908</v>
+        <v>949</v>
       </c>
     </row>
     <row r="976" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20473,7 +20473,7 @@
       <c r="C976" s="1"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1">
-        <v>908</v>
+        <v>949</v>
       </c>
     </row>
     <row r="977" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20486,7 +20486,7 @@
       <c r="C977" s="1"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1">
-        <v>908</v>
+        <v>949</v>
       </c>
     </row>
     <row r="978" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20499,7 +20499,7 @@
       <c r="C978" s="1"/>
       <c r="D978" s="1"/>
       <c r="E978" s="1">
-        <v>908</v>
+        <v>949</v>
       </c>
     </row>
     <row r="979" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20512,7 +20512,7 @@
       <c r="C979" s="1"/>
       <c r="D979" s="1"/>
       <c r="E979" s="1">
-        <v>977</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="980" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20525,7 +20525,7 @@
       <c r="C980" s="1"/>
       <c r="D980" s="1"/>
       <c r="E980" s="1">
-        <v>443</v>
+        <v>463</v>
       </c>
     </row>
     <row r="981" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20538,7 +20538,7 @@
       <c r="C981" s="1"/>
       <c r="D981" s="1"/>
       <c r="E981" s="1">
-        <v>683</v>
+        <v>714</v>
       </c>
     </row>
     <row r="982" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20551,7 +20551,7 @@
       <c r="C982" s="1"/>
       <c r="D982" s="1"/>
       <c r="E982" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="983" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20564,7 +20564,7 @@
       <c r="C983" s="1"/>
       <c r="D983" s="1"/>
       <c r="E983" s="1">
-        <v>2471</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="984" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20577,7 +20577,7 @@
       <c r="C984" s="1"/>
       <c r="D984" s="1"/>
       <c r="E984" s="1">
-        <v>3308</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="985" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20590,7 +20590,7 @@
       <c r="C985" s="1"/>
       <c r="D985" s="1"/>
       <c r="E985" s="1">
-        <v>2306</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="986" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20603,7 +20603,7 @@
       <c r="C986" s="1"/>
       <c r="D986" s="1"/>
       <c r="E986" s="1">
-        <v>2609</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="987" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20616,7 +20616,7 @@
       <c r="C987" s="1"/>
       <c r="D987" s="1"/>
       <c r="E987" s="1">
-        <v>2800</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="988" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20629,7 +20629,7 @@
       <c r="C988" s="1"/>
       <c r="D988" s="1"/>
       <c r="E988" s="1">
-        <v>1547</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="989" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20642,7 +20642,7 @@
       <c r="C989" s="1"/>
       <c r="D989" s="1"/>
       <c r="E989" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="990" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20655,7 +20655,7 @@
       <c r="C990" s="1"/>
       <c r="D990" s="1"/>
       <c r="E990" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="991" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20668,7 +20668,7 @@
       <c r="C991" s="1"/>
       <c r="D991" s="1"/>
       <c r="E991" s="1">
-        <v>1757</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="992" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20681,7 +20681,7 @@
       <c r="C992" s="1"/>
       <c r="D992" s="1"/>
       <c r="E992" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="993" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20694,7 +20694,7 @@
       <c r="C993" s="1"/>
       <c r="D993" s="1"/>
       <c r="E993" s="1">
-        <v>2306</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="994" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20707,7 +20707,7 @@
       <c r="C994" s="1"/>
       <c r="D994" s="1"/>
       <c r="E994" s="1">
-        <v>1329</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="995" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20720,7 +20720,7 @@
       <c r="C995" s="1"/>
       <c r="D995" s="1"/>
       <c r="E995" s="1">
-        <v>1569</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="996" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20733,7 +20733,7 @@
       <c r="C996" s="1"/>
       <c r="D996" s="1"/>
       <c r="E996" s="1">
-        <v>1569</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="997" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20746,7 +20746,7 @@
       <c r="C997" s="1"/>
       <c r="D997" s="1"/>
       <c r="E997" s="1">
-        <v>1569</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="998" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20759,7 +20759,7 @@
       <c r="C998" s="1"/>
       <c r="D998" s="1"/>
       <c r="E998" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="999" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20772,7 +20772,7 @@
       <c r="C999" s="1"/>
       <c r="D999" s="1"/>
       <c r="E999" s="1">
-        <v>1569</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1000" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20785,7 +20785,7 @@
       <c r="C1000" s="1"/>
       <c r="D1000" s="1"/>
       <c r="E1000" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1001" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20798,7 +20798,7 @@
       <c r="C1001" s="1"/>
       <c r="D1001" s="1"/>
       <c r="E1001" s="1">
-        <v>1569</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1002" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20811,7 +20811,7 @@
       <c r="C1002" s="1"/>
       <c r="D1002" s="1"/>
       <c r="E1002" s="1">
-        <v>2090</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1003" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20824,7 +20824,7 @@
       <c r="C1003" s="1"/>
       <c r="D1003" s="1"/>
       <c r="E1003" s="1">
-        <v>1547</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1004" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20837,7 +20837,7 @@
       <c r="C1004" s="1"/>
       <c r="D1004" s="1"/>
       <c r="E1004" s="1">
-        <v>1757</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1005" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20850,7 +20850,7 @@
       <c r="C1005" s="1"/>
       <c r="D1005" s="1"/>
       <c r="E1005" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1006" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20863,7 +20863,7 @@
       <c r="C1006" s="1"/>
       <c r="D1006" s="1"/>
       <c r="E1006" s="1">
-        <v>2306</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1007" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20876,7 +20876,7 @@
       <c r="C1007" s="1"/>
       <c r="D1007" s="1"/>
       <c r="E1007" s="1">
-        <v>1329</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1008" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20889,7 +20889,7 @@
       <c r="C1008" s="1"/>
       <c r="D1008" s="1"/>
       <c r="E1008" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1009" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20902,7 +20902,7 @@
       <c r="C1009" s="1"/>
       <c r="D1009" s="1"/>
       <c r="E1009" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1010" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20915,7 +20915,7 @@
       <c r="C1010" s="1"/>
       <c r="D1010" s="1"/>
       <c r="E1010" s="1">
-        <v>1569</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1011" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20928,7 +20928,7 @@
       <c r="C1011" s="1"/>
       <c r="D1011" s="1"/>
       <c r="E1011" s="1">
-        <v>1569</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1012" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20941,7 +20941,7 @@
       <c r="C1012" s="1"/>
       <c r="D1012" s="1"/>
       <c r="E1012" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1013" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20954,7 +20954,7 @@
       <c r="C1013" s="1"/>
       <c r="D1013" s="1"/>
       <c r="E1013" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1014" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20967,7 +20967,7 @@
       <c r="C1014" s="1"/>
       <c r="D1014" s="1"/>
       <c r="E1014" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1015" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20980,7 +20980,7 @@
       <c r="C1015" s="1"/>
       <c r="D1015" s="1"/>
       <c r="E1015" s="1">
-        <v>1861</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1016" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20993,7 +20993,7 @@
       <c r="C1016" s="1"/>
       <c r="D1016" s="1"/>
       <c r="E1016" s="1">
-        <v>2090</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1017" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21006,7 +21006,7 @@
       <c r="C1017" s="1"/>
       <c r="D1017" s="1"/>
       <c r="E1017" s="1">
-        <v>1089</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1018" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21019,7 +21019,7 @@
       <c r="C1018" s="1"/>
       <c r="D1018" s="1"/>
       <c r="E1018" s="1">
-        <v>1388</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1019" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21032,7 +21032,7 @@
       <c r="C1019" s="1"/>
       <c r="D1019" s="1"/>
       <c r="E1019" s="1">
-        <v>1388</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1020" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21045,7 +21045,7 @@
       <c r="C1020" s="1"/>
       <c r="D1020" s="1"/>
       <c r="E1020" s="1">
-        <v>1137</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1021" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21058,7 +21058,7 @@
       <c r="C1021" s="1"/>
       <c r="D1021" s="1"/>
       <c r="E1021" s="1">
-        <v>1137</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1022" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21084,7 +21084,7 @@
       <c r="C1023" s="1"/>
       <c r="D1023" s="1"/>
       <c r="E1023" s="1">
-        <v>1388</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1024" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21097,7 +21097,7 @@
       <c r="C1024" s="1"/>
       <c r="D1024" s="1"/>
       <c r="E1024" s="1">
-        <v>1388</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1025" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21110,7 +21110,7 @@
       <c r="C1025" s="1"/>
       <c r="D1025" s="1"/>
       <c r="E1025" s="1">
-        <v>1388</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1026" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21123,7 +21123,7 @@
       <c r="C1026" s="1"/>
       <c r="D1026" s="1"/>
       <c r="E1026" s="1">
-        <v>1667</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1027" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21136,7 +21136,7 @@
       <c r="C1027" s="1"/>
       <c r="D1027" s="1"/>
       <c r="E1027" s="1">
-        <v>716</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1028" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21149,7 +21149,7 @@
       <c r="C1028" s="1"/>
       <c r="D1028" s="1"/>
       <c r="E1028" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1029" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21162,7 +21162,7 @@
       <c r="C1029" s="1"/>
       <c r="D1029" s="1"/>
       <c r="E1029" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1030" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21175,7 +21175,7 @@
       <c r="C1030" s="1"/>
       <c r="D1030" s="1"/>
       <c r="E1030" s="1">
-        <v>813</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1031" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21188,7 +21188,7 @@
       <c r="C1031" s="1"/>
       <c r="D1031" s="1"/>
       <c r="E1031" s="1">
-        <v>813</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1032" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21201,7 +21201,7 @@
       <c r="C1032" s="1"/>
       <c r="D1032" s="1"/>
       <c r="E1032" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1033" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21214,7 +21214,7 @@
       <c r="C1033" s="1"/>
       <c r="D1033" s="1"/>
       <c r="E1033" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1034" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21227,7 +21227,7 @@
       <c r="C1034" s="1"/>
       <c r="D1034" s="1"/>
       <c r="E1034" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1035" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21240,7 +21240,7 @@
       <c r="C1035" s="1"/>
       <c r="D1035" s="1"/>
       <c r="E1035" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1036" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21253,7 +21253,7 @@
       <c r="C1036" s="1"/>
       <c r="D1036" s="1"/>
       <c r="E1036" s="1">
-        <v>1228</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1037" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21266,7 +21266,7 @@
       <c r="C1037" s="1"/>
       <c r="D1037" s="1"/>
       <c r="E1037" s="1">
-        <v>1547</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1038" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21279,7 +21279,7 @@
       <c r="C1038" s="1"/>
       <c r="D1038" s="1"/>
       <c r="E1038" s="1">
-        <v>3078</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="1039" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21292,7 +21292,7 @@
       <c r="C1039" s="1"/>
       <c r="D1039" s="1"/>
       <c r="E1039" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1040" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21305,7 +21305,7 @@
       <c r="C1040" s="1"/>
       <c r="D1040" s="1"/>
       <c r="E1040" s="1">
-        <v>1757</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1041" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21318,7 +21318,7 @@
       <c r="C1041" s="1"/>
       <c r="D1041" s="1"/>
       <c r="E1041" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1042" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21331,7 +21331,7 @@
       <c r="C1042" s="1"/>
       <c r="D1042" s="1"/>
       <c r="E1042" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1043" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21344,7 +21344,7 @@
       <c r="C1043" s="1"/>
       <c r="D1043" s="1"/>
       <c r="E1043" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1044" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21357,7 +21357,7 @@
       <c r="C1044" s="1"/>
       <c r="D1044" s="1"/>
       <c r="E1044" s="1">
-        <v>2306</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1045" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21370,7 +21370,7 @@
       <c r="C1045" s="1"/>
       <c r="D1045" s="1"/>
       <c r="E1045" s="1">
-        <v>1547</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1046" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21383,7 +21383,7 @@
       <c r="C1046" s="1"/>
       <c r="D1046" s="1"/>
       <c r="E1046" s="1">
-        <v>3078</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="1047" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21396,7 +21396,7 @@
       <c r="C1047" s="1"/>
       <c r="D1047" s="1"/>
       <c r="E1047" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1048" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21409,7 +21409,7 @@
       <c r="C1048" s="1"/>
       <c r="D1048" s="1"/>
       <c r="E1048" s="1">
-        <v>1757</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1049" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21422,7 +21422,7 @@
       <c r="C1049" s="1"/>
       <c r="D1049" s="1"/>
       <c r="E1049" s="1">
-        <v>1757</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1050" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21435,7 +21435,7 @@
       <c r="C1050" s="1"/>
       <c r="D1050" s="1"/>
       <c r="E1050" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1051" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21448,7 +21448,7 @@
       <c r="C1051" s="1"/>
       <c r="D1051" s="1"/>
       <c r="E1051" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1052" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21461,7 +21461,7 @@
       <c r="C1052" s="1"/>
       <c r="D1052" s="1"/>
       <c r="E1052" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1053" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21474,7 +21474,7 @@
       <c r="C1053" s="1"/>
       <c r="D1053" s="1"/>
       <c r="E1053" s="1">
-        <v>2306</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1054" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21487,7 +21487,7 @@
       <c r="C1054" s="1"/>
       <c r="D1054" s="1"/>
       <c r="E1054" s="1">
-        <v>1329</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1055" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21500,7 +21500,7 @@
       <c r="C1055" s="1"/>
       <c r="D1055" s="1"/>
       <c r="E1055" s="1">
-        <v>2092</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1056" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21513,7 +21513,7 @@
       <c r="C1056" s="1"/>
       <c r="D1056" s="1"/>
       <c r="E1056" s="1">
-        <v>716</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1057" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21526,7 +21526,7 @@
       <c r="C1057" s="1"/>
       <c r="D1057" s="1"/>
       <c r="E1057" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1058" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21539,7 +21539,7 @@
       <c r="C1058" s="1"/>
       <c r="D1058" s="1"/>
       <c r="E1058" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1059" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21552,7 +21552,7 @@
       <c r="C1059" s="1"/>
       <c r="D1059" s="1"/>
       <c r="E1059" s="1">
-        <v>813</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1060" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21565,7 +21565,7 @@
       <c r="C1060" s="1"/>
       <c r="D1060" s="1"/>
       <c r="E1060" s="1">
-        <v>813</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1061" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21578,7 +21578,7 @@
       <c r="C1061" s="1"/>
       <c r="D1061" s="1"/>
       <c r="E1061" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1062" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21591,7 +21591,7 @@
       <c r="C1062" s="1"/>
       <c r="D1062" s="1"/>
       <c r="E1062" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1063" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21604,7 +21604,7 @@
       <c r="C1063" s="1"/>
       <c r="D1063" s="1"/>
       <c r="E1063" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1064" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21617,7 +21617,7 @@
       <c r="C1064" s="1"/>
       <c r="D1064" s="1"/>
       <c r="E1064" s="1">
-        <v>1228</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1065" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21630,7 +21630,7 @@
       <c r="C1065" s="1"/>
       <c r="D1065" s="1"/>
       <c r="E1065" s="1">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="1066" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21643,7 +21643,7 @@
       <c r="C1066" s="1"/>
       <c r="D1066" s="1"/>
       <c r="E1066" s="1">
-        <v>414</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1067" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21656,7 +21656,7 @@
       <c r="C1067" s="1"/>
       <c r="D1067" s="1"/>
       <c r="E1067" s="1">
-        <v>663</v>
+        <v>693</v>
       </c>
     </row>
     <row r="1068" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21669,7 +21669,7 @@
       <c r="C1068" s="1"/>
       <c r="D1068" s="1"/>
       <c r="E1068" s="1">
-        <v>1938</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1069" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21682,7 +21682,7 @@
       <c r="C1069" s="1"/>
       <c r="D1069" s="1"/>
       <c r="E1069" s="1">
-        <v>2528</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1070" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21695,7 +21695,7 @@
       <c r="C1070" s="1"/>
       <c r="D1070" s="1"/>
       <c r="E1070" s="1">
-        <v>2305</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1071" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21708,7 +21708,7 @@
       <c r="C1071" s="1"/>
       <c r="D1071" s="1"/>
       <c r="E1071" s="1">
-        <v>2528</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1072" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21721,7 +21721,7 @@
       <c r="C1072" s="1"/>
       <c r="D1072" s="1"/>
       <c r="E1072" s="1">
-        <v>2587</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1073" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21734,7 +21734,7 @@
       <c r="C1073" s="1"/>
       <c r="D1073" s="1"/>
       <c r="E1073" s="1">
-        <v>716</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1074" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21747,7 +21747,7 @@
       <c r="C1074" s="1"/>
       <c r="D1074" s="1"/>
       <c r="E1074" s="1">
-        <v>813</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1075" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21760,7 +21760,7 @@
       <c r="C1075" s="1"/>
       <c r="D1075" s="1"/>
       <c r="E1075" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1076" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21773,7 +21773,7 @@
       <c r="C1076" s="1"/>
       <c r="D1076" s="1"/>
       <c r="E1076" s="1">
-        <v>1228</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1077" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21786,7 +21786,7 @@
       <c r="C1077" s="1"/>
       <c r="D1077" s="1"/>
       <c r="E1077" s="1">
-        <v>716</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1078" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21799,7 +21799,7 @@
       <c r="C1078" s="1"/>
       <c r="D1078" s="1"/>
       <c r="E1078" s="1">
-        <v>855</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1079" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21812,7 +21812,7 @@
       <c r="C1079" s="1"/>
       <c r="D1079" s="1"/>
       <c r="E1079" s="1">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1080" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21825,7 +21825,7 @@
       <c r="C1080" s="1"/>
       <c r="D1080" s="1"/>
       <c r="E1080" s="1">
-        <v>1228</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1081" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21838,7 +21838,7 @@
       <c r="C1081" s="1"/>
       <c r="D1081" s="1"/>
       <c r="E1081" s="1">
-        <v>1760</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1082" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21851,7 +21851,7 @@
       <c r="C1082" s="1"/>
       <c r="D1082" s="1"/>
       <c r="E1082" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1083" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21864,7 +21864,7 @@
       <c r="C1083" s="1"/>
       <c r="D1083" s="1"/>
       <c r="E1083" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1084" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21877,7 +21877,7 @@
       <c r="C1084" s="1"/>
       <c r="D1084" s="1"/>
       <c r="E1084" s="1">
-        <v>1899</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1085" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21890,7 +21890,7 @@
       <c r="C1085" s="1"/>
       <c r="D1085" s="1"/>
       <c r="E1085" s="1">
-        <v>1899</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1086" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21903,7 +21903,7 @@
       <c r="C1086" s="1"/>
       <c r="D1086" s="1"/>
       <c r="E1086" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1087" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21916,7 +21916,7 @@
       <c r="C1087" s="1"/>
       <c r="D1087" s="1"/>
       <c r="E1087" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1088" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21929,7 +21929,7 @@
       <c r="C1088" s="1"/>
       <c r="D1088" s="1"/>
       <c r="E1088" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1089" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21942,7 +21942,7 @@
       <c r="C1089" s="1"/>
       <c r="D1089" s="1"/>
       <c r="E1089" s="1">
-        <v>2026</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1090" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21955,7 +21955,7 @@
       <c r="C1090" s="1"/>
       <c r="D1090" s="1"/>
       <c r="E1090" s="1">
-        <v>2092</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1091" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21968,7 +21968,7 @@
       <c r="C1091" s="1"/>
       <c r="D1091" s="1"/>
       <c r="E1091" s="1">
-        <v>16599</v>
+        <v>17354</v>
       </c>
     </row>
     <row r="1092" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21981,7 +21981,7 @@
       <c r="C1092" s="1"/>
       <c r="D1092" s="1"/>
       <c r="E1092" s="1">
-        <v>6072</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="1093" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21994,7 +21994,7 @@
       <c r="C1093" s="1"/>
       <c r="D1093" s="1"/>
       <c r="E1093" s="1">
-        <v>25768</v>
+        <v>26939</v>
       </c>
     </row>
     <row r="1094" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22007,7 +22007,7 @@
       <c r="C1094" s="1"/>
       <c r="D1094" s="1"/>
       <c r="E1094" s="1">
-        <v>10415</v>
+        <v>10888</v>
       </c>
     </row>
     <row r="1095" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22020,7 +22020,7 @@
       <c r="C1095" s="1"/>
       <c r="D1095" s="1"/>
       <c r="E1095" s="1">
-        <v>5212</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="1096" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22033,7 +22033,7 @@
       <c r="C1096" s="1"/>
       <c r="D1096" s="1"/>
       <c r="E1096" s="1">
-        <v>8300</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="1097" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22046,7 +22046,7 @@
       <c r="C1097" s="1"/>
       <c r="D1097" s="1"/>
       <c r="E1097" s="1">
-        <v>6072</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="1098" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22059,7 +22059,7 @@
       <c r="C1098" s="1"/>
       <c r="D1098" s="1"/>
       <c r="E1098" s="1">
-        <v>5212</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="1099" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22072,7 +22072,7 @@
       <c r="C1099" s="1"/>
       <c r="D1099" s="1"/>
       <c r="E1099" s="1">
-        <v>8300</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="1100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22085,7 +22085,7 @@
       <c r="C1100" s="1"/>
       <c r="D1100" s="1"/>
       <c r="E1100" s="1">
-        <v>12995</v>
+        <v>13586</v>
       </c>
     </row>
     <row r="1101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22098,7 +22098,7 @@
       <c r="C1101" s="1"/>
       <c r="D1101" s="1"/>
       <c r="E1101" s="1">
-        <v>6499</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22111,11 +22111,16 @@
       <c r="C1102" s="1"/>
       <c r="D1102" s="1"/>
       <c r="E1102" s="1">
-        <v>6499</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="1103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1103" s="1">
+        <v>6499</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1104" s="1">
         <v>6498.8</v>
       </c>
     </row>
